--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.2169394135652</v>
+        <v>21.21693941356526</v>
       </c>
       <c r="C2">
-        <v>14.8570705773554</v>
+        <v>14.85707057735541</v>
       </c>
       <c r="D2">
-        <v>6.891595366351602</v>
+        <v>6.891595366351601</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.68334933059984</v>
+        <v>30.68334933059988</v>
       </c>
       <c r="J2">
-        <v>18.79100613834667</v>
+        <v>18.7910061383467</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70048839955778</v>
+        <v>19.70048839955775</v>
       </c>
       <c r="C3">
-        <v>13.84907281016693</v>
+        <v>13.84907281016723</v>
       </c>
       <c r="D3">
-        <v>6.510099372928909</v>
+        <v>6.510099372928871</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.30772859547373</v>
+        <v>35.30772859547368</v>
       </c>
       <c r="G3">
-        <v>25.17249317519369</v>
+        <v>25.17249317519362</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.27253624771162</v>
+        <v>28.27253624771173</v>
       </c>
       <c r="J3">
-        <v>17.49778565617481</v>
+        <v>17.49778565617482</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72446830004789</v>
+        <v>18.7244683000479</v>
       </c>
       <c r="C4">
-        <v>13.20253489063204</v>
+        <v>13.20253489063194</v>
       </c>
       <c r="D4">
-        <v>6.269807343233332</v>
+        <v>6.269807343233366</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.986612740329</v>
+        <v>33.9866127403291</v>
       </c>
       <c r="G4">
-        <v>24.40742419763211</v>
+        <v>24.40742419763222</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.74608235288457</v>
+        <v>26.74608235288459</v>
       </c>
       <c r="J4">
-        <v>16.66670065664269</v>
+        <v>16.66670065664266</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.31514921719565</v>
+        <v>18.31514921719562</v>
       </c>
       <c r="C5">
-        <v>12.93193094527922</v>
+        <v>12.93193094527926</v>
       </c>
       <c r="D5">
-        <v>6.170270769544418</v>
+        <v>6.170270769544282</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.4470658549097</v>
+        <v>33.44706585490964</v>
       </c>
       <c r="G5">
-        <v>24.09807723146209</v>
+        <v>24.09807723146206</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>26.11137001136395</v>
       </c>
       <c r="J5">
-        <v>16.31848124995516</v>
+        <v>16.31848124995513</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2464745928097</v>
+        <v>18.24647459280969</v>
       </c>
       <c r="C6">
-        <v>12.8865615659293</v>
+        <v>12.886561565929</v>
       </c>
       <c r="D6">
-        <v>6.153643074888874</v>
+        <v>6.153643074889108</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.3574094896116</v>
+        <v>33.35740948961158</v>
       </c>
       <c r="G6">
-        <v>24.04685915184421</v>
+        <v>24.04685915184425</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.00518327404567</v>
+        <v>26.0051832740457</v>
       </c>
       <c r="J6">
-        <v>16.26007702185932</v>
+        <v>16.26007702185922</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71899534075655</v>
+        <v>18.71899534075653</v>
       </c>
       <c r="C7">
-        <v>13.19891454431538</v>
+        <v>13.19891454431528</v>
       </c>
       <c r="D7">
-        <v>6.268471600869995</v>
+        <v>6.268471600869781</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.9793407441188</v>
+        <v>33.97934074411876</v>
       </c>
       <c r="G7">
-        <v>24.40324232486896</v>
+        <v>24.40324232486893</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>26.73757498480802</v>
       </c>
       <c r="J7">
-        <v>16.66204337936333</v>
+        <v>16.66204337936328</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.70320505226129</v>
+        <v>20.70320505226127</v>
       </c>
       <c r="C8">
-        <v>14.51512214877483</v>
+        <v>14.51512214877507</v>
       </c>
       <c r="D8">
-        <v>6.761244729247048</v>
+        <v>6.761244729246978</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.71310906980826</v>
+        <v>36.71310906980825</v>
       </c>
       <c r="G8">
-        <v>25.99708358647968</v>
+        <v>25.99708358647965</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.86100837968008</v>
+        <v>29.8610083796801</v>
       </c>
       <c r="J8">
-        <v>18.35264214747124</v>
+        <v>18.3526421474713</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.25279192923606</v>
+        <v>24.25279192923605</v>
       </c>
       <c r="C9">
-        <v>16.88751411812463</v>
+        <v>16.88751411812458</v>
       </c>
       <c r="D9">
-        <v>7.68580128422631</v>
+        <v>7.685801284226209</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.04042985070158</v>
+        <v>42.04042985070159</v>
       </c>
       <c r="G9">
-        <v>29.20288844072996</v>
+        <v>29.20288844072999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.67677920972096</v>
+        <v>35.67677920972091</v>
       </c>
       <c r="J9">
-        <v>21.38642936097409</v>
+        <v>21.38642936097408</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.6771841574089</v>
+        <v>26.67718415740883</v>
       </c>
       <c r="C10">
-        <v>18.52169952268543</v>
+        <v>18.52169952268525</v>
       </c>
       <c r="D10">
-        <v>8.352294238071694</v>
+        <v>8.352294238071794</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.06527170549406</v>
+        <v>46.06527170549384</v>
       </c>
       <c r="G10">
-        <v>31.62434835687115</v>
+        <v>31.62434835687102</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.86256944966288</v>
+        <v>39.86256944966279</v>
       </c>
       <c r="J10">
-        <v>23.46501428558653</v>
+        <v>23.46501428558647</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74729412938898</v>
+        <v>27.74729412938903</v>
       </c>
       <c r="C11">
-        <v>19.24706029040134</v>
+        <v>19.24706029040147</v>
       </c>
       <c r="D11">
-        <v>8.657133943019611</v>
+        <v>8.657133943019588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.99665251557319</v>
+        <v>47.99665251557339</v>
       </c>
       <c r="G11">
-        <v>32.7494885128641</v>
+        <v>32.74948851286426</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>41.77960609785597</v>
+        <v>41.77960609785598</v>
       </c>
       <c r="J11">
-        <v>24.38421361124869</v>
+        <v>24.38421361124876</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.14856507035569</v>
+        <v>28.14856507035557</v>
       </c>
       <c r="C12">
-        <v>19.51976173083566</v>
+        <v>19.51976173083569</v>
       </c>
       <c r="D12">
-        <v>8.773347509996656</v>
+        <v>8.773347509996748</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.72987548423222</v>
+        <v>48.72987548423212</v>
       </c>
       <c r="G12">
-        <v>33.24907339189741</v>
+        <v>33.24907339189733</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.5110902093457</v>
+        <v>42.51109020934569</v>
       </c>
       <c r="J12">
-        <v>24.72918428786377</v>
+        <v>24.7291842878637</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06230606572585</v>
+        <v>28.06230606572583</v>
       </c>
       <c r="C13">
-        <v>19.46110681910895</v>
+        <v>19.46110681910896</v>
       </c>
       <c r="D13">
-        <v>8.748273548653653</v>
+        <v>8.748273548653721</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.57184372264357</v>
+        <v>48.57184372264344</v>
       </c>
       <c r="G13">
-        <v>33.14139436402255</v>
+        <v>33.14139436402243</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42.35323376238581</v>
+        <v>42.35323376238573</v>
       </c>
       <c r="J13">
         <v>24.65501420717696</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78038122088638</v>
+        <v>27.78038122088653</v>
       </c>
       <c r="C14">
-        <v>19.26953107245227</v>
+        <v>19.26953107245231</v>
       </c>
       <c r="D14">
-        <v>8.666675536001376</v>
+        <v>8.666675536001366</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.05692510920386</v>
+        <v>48.05692510920409</v>
       </c>
       <c r="G14">
-        <v>32.79055390424987</v>
+        <v>32.79055390425005</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>41.8396492546111</v>
+        <v>41.83964925461122</v>
       </c>
       <c r="J14">
-        <v>24.41265234660737</v>
+        <v>24.41265234660749</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60720447239914</v>
+        <v>27.60720447239918</v>
       </c>
       <c r="C15">
-        <v>19.15194915806461</v>
+        <v>19.15194915806452</v>
       </c>
       <c r="D15">
         <v>8.616814930833911</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.74182997517875</v>
+        <v>47.7418299751788</v>
       </c>
       <c r="G15">
-        <v>32.59911072749247</v>
+        <v>32.59911072749252</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>41.52591535338981</v>
+        <v>41.52591535338972</v>
       </c>
       <c r="J15">
         <v>24.26381690888601</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.60665113736249</v>
+        <v>26.60665113736247</v>
       </c>
       <c r="C16">
-        <v>18.47398155925892</v>
+        <v>18.47398155925888</v>
       </c>
       <c r="D16">
-        <v>8.33244748954321</v>
+        <v>8.332447489543078</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.93919480238635</v>
+        <v>45.93919480238637</v>
       </c>
       <c r="G16">
-        <v>31.55143563595409</v>
+        <v>31.55143563595411</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>39.7378362857059</v>
+        <v>39.73783628570591</v>
       </c>
       <c r="J16">
-        <v>23.40446631472217</v>
+        <v>23.40446631472215</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.98493586076015</v>
+        <v>25.9849358607601</v>
       </c>
       <c r="C17">
-        <v>18.05384014604421</v>
+        <v>18.05384014604413</v>
       </c>
       <c r="D17">
-        <v>8.158749335250777</v>
+        <v>8.158749335250723</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.8344486760545</v>
+        <v>44.8344486760544</v>
       </c>
       <c r="G17">
         <v>30.91501736257288</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.64650190126853</v>
+        <v>38.64650190126838</v>
       </c>
       <c r="J17">
-        <v>22.87096380205178</v>
+        <v>22.8709638020517</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.62420429038126</v>
+        <v>25.62420429038124</v>
       </c>
       <c r="C18">
-        <v>17.81044312177556</v>
+        <v>17.81044312177549</v>
       </c>
       <c r="D18">
-        <v>8.058956852235932</v>
+        <v>8.058956852235964</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.23249858992351</v>
+        <v>44.23249858992356</v>
       </c>
       <c r="G18">
-        <v>30.55097502229381</v>
+        <v>30.55097502229385</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.0197352982409</v>
+        <v>38.01973529824095</v>
       </c>
       <c r="J18">
         <v>22.56157707036836</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.50150780048158</v>
+        <v>25.50150780048175</v>
       </c>
       <c r="C19">
-        <v>17.72771750990153</v>
+        <v>17.72771750990136</v>
       </c>
       <c r="D19">
-        <v>8.025174816976669</v>
+        <v>8.025174816976767</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.03352465007656</v>
+        <v>44.03352465007657</v>
       </c>
       <c r="G19">
-        <v>30.42803631832135</v>
+        <v>30.4280363183213</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.80758940519942</v>
+        <v>37.80758940519956</v>
       </c>
       <c r="J19">
-        <v>22.45637143379549</v>
+        <v>22.4563714337956</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.05143833192086</v>
+        <v>26.05143833192093</v>
       </c>
       <c r="C20">
-        <v>18.09874133663219</v>
+        <v>18.09874133663217</v>
       </c>
       <c r="D20">
-        <v>8.177224653303758</v>
+        <v>8.177224653303663</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.95205519640055</v>
+        <v>44.95205519640063</v>
       </c>
       <c r="G20">
-        <v>30.98255107874865</v>
+        <v>30.98255107874868</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.76255582157017</v>
+        <v>38.76255582157025</v>
       </c>
       <c r="J20">
-        <v>22.92801353406984</v>
+        <v>22.92801353406986</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.86328979501084</v>
+        <v>27.86328979501082</v>
       </c>
       <c r="C21">
-        <v>19.32584939019436</v>
+        <v>19.32584939019438</v>
       </c>
       <c r="D21">
-        <v>8.690616481006201</v>
+        <v>8.690616481006264</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.2081008514101</v>
+        <v>48.20810085141004</v>
       </c>
       <c r="G21">
-        <v>32.89355551102084</v>
+        <v>32.89355551102076</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.99031569881592</v>
+        <v>41.99031569881583</v>
       </c>
       <c r="J21">
-        <v>24.48391798729736</v>
+        <v>24.48391798729739</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.02488198503099</v>
+        <v>29.02488198503098</v>
       </c>
       <c r="C22">
-        <v>20.11673738610242</v>
+        <v>20.11673738610244</v>
       </c>
       <c r="D22">
-        <v>9.031087246550603</v>
+        <v>9.031087246550872</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.34828289691993</v>
+        <v>50.34828289691987</v>
       </c>
       <c r="G22">
-        <v>34.35188220213766</v>
+        <v>34.35188220213759</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44.13483594545626</v>
+        <v>44.13483594545632</v>
       </c>
       <c r="J22">
-        <v>25.48312387302679</v>
+        <v>25.4831238730268</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40667920367195</v>
+        <v>28.40667920367193</v>
       </c>
       <c r="C23">
-        <v>19.69538852874312</v>
+        <v>19.69538852874304</v>
       </c>
       <c r="D23">
-        <v>8.848686005172191</v>
+        <v>8.84868600517215</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,13 +1225,13 @@
         <v>49.20411635006413</v>
       </c>
       <c r="G23">
-        <v>33.57221855314929</v>
+        <v>33.57221855314931</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>42.98550669004435</v>
+        <v>42.98550669004433</v>
       </c>
       <c r="J23">
         <v>24.95116979494276</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.02138289513339</v>
+        <v>26.0213828951334</v>
       </c>
       <c r="C24">
-        <v>18.07844732146499</v>
+        <v>18.07844732146507</v>
       </c>
       <c r="D24">
-        <v>8.168871785374483</v>
+        <v>8.168871785374582</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.89888679787296</v>
+        <v>44.89888679787293</v>
       </c>
       <c r="G24">
-        <v>30.95201341662291</v>
+        <v>30.95201341662289</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.7100860619407</v>
+        <v>38.71008606194068</v>
       </c>
       <c r="J24">
         <v>22.90222971246483</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32679210390126</v>
+        <v>23.32679210390125</v>
       </c>
       <c r="C25">
-        <v>16.2663939097805</v>
+        <v>16.26639390978053</v>
       </c>
       <c r="D25">
-        <v>7.439087524831437</v>
+        <v>7.439087524831309</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.60093605473777</v>
+        <v>40.60093605473789</v>
       </c>
       <c r="G25">
-        <v>28.32587345959707</v>
+        <v>28.32587345959715</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.12747866252396</v>
+        <v>34.12747866252395</v>
       </c>
       <c r="J25">
-        <v>20.59389341763189</v>
+        <v>20.59389341763193</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.21693941356526</v>
+        <v>21.2169394135652</v>
       </c>
       <c r="C2">
-        <v>14.85707057735541</v>
+        <v>14.8570705773554</v>
       </c>
       <c r="D2">
-        <v>6.891595366351601</v>
+        <v>6.891595366351602</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.68334933059988</v>
+        <v>30.68334933059984</v>
       </c>
       <c r="J2">
-        <v>18.7910061383467</v>
+        <v>18.79100613834667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70048839955775</v>
+        <v>19.70048839955778</v>
       </c>
       <c r="C3">
-        <v>13.84907281016723</v>
+        <v>13.84907281016693</v>
       </c>
       <c r="D3">
-        <v>6.510099372928871</v>
+        <v>6.510099372928909</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.30772859547368</v>
+        <v>35.30772859547373</v>
       </c>
       <c r="G3">
-        <v>25.17249317519362</v>
+        <v>25.17249317519369</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.27253624771173</v>
+        <v>28.27253624771162</v>
       </c>
       <c r="J3">
-        <v>17.49778565617482</v>
+        <v>17.49778565617481</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7244683000479</v>
+        <v>18.72446830004789</v>
       </c>
       <c r="C4">
-        <v>13.20253489063194</v>
+        <v>13.20253489063204</v>
       </c>
       <c r="D4">
-        <v>6.269807343233366</v>
+        <v>6.269807343233332</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.9866127403291</v>
+        <v>33.986612740329</v>
       </c>
       <c r="G4">
-        <v>24.40742419763222</v>
+        <v>24.40742419763211</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.74608235288459</v>
+        <v>26.74608235288457</v>
       </c>
       <c r="J4">
-        <v>16.66670065664266</v>
+        <v>16.66670065664269</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.31514921719562</v>
+        <v>18.31514921719565</v>
       </c>
       <c r="C5">
-        <v>12.93193094527926</v>
+        <v>12.93193094527922</v>
       </c>
       <c r="D5">
-        <v>6.170270769544282</v>
+        <v>6.170270769544418</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.44706585490964</v>
+        <v>33.4470658549097</v>
       </c>
       <c r="G5">
-        <v>24.09807723146206</v>
+        <v>24.09807723146209</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>26.11137001136395</v>
       </c>
       <c r="J5">
-        <v>16.31848124995513</v>
+        <v>16.31848124995516</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24647459280969</v>
+        <v>18.2464745928097</v>
       </c>
       <c r="C6">
-        <v>12.886561565929</v>
+        <v>12.8865615659293</v>
       </c>
       <c r="D6">
-        <v>6.153643074889108</v>
+        <v>6.153643074888874</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.35740948961158</v>
+        <v>33.3574094896116</v>
       </c>
       <c r="G6">
-        <v>24.04685915184425</v>
+        <v>24.04685915184421</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.0051832740457</v>
+        <v>26.00518327404567</v>
       </c>
       <c r="J6">
-        <v>16.26007702185922</v>
+        <v>16.26007702185932</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71899534075653</v>
+        <v>18.71899534075655</v>
       </c>
       <c r="C7">
-        <v>13.19891454431528</v>
+        <v>13.19891454431538</v>
       </c>
       <c r="D7">
-        <v>6.268471600869781</v>
+        <v>6.268471600869995</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.97934074411876</v>
+        <v>33.9793407441188</v>
       </c>
       <c r="G7">
-        <v>24.40324232486893</v>
+        <v>24.40324232486896</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>26.73757498480802</v>
       </c>
       <c r="J7">
-        <v>16.66204337936328</v>
+        <v>16.66204337936333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.70320505226127</v>
+        <v>20.70320505226129</v>
       </c>
       <c r="C8">
-        <v>14.51512214877507</v>
+        <v>14.51512214877483</v>
       </c>
       <c r="D8">
-        <v>6.761244729246978</v>
+        <v>6.761244729247048</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.71310906980825</v>
+        <v>36.71310906980826</v>
       </c>
       <c r="G8">
-        <v>25.99708358647965</v>
+        <v>25.99708358647968</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.8610083796801</v>
+        <v>29.86100837968008</v>
       </c>
       <c r="J8">
-        <v>18.3526421474713</v>
+        <v>18.35264214747124</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.25279192923605</v>
+        <v>24.25279192923606</v>
       </c>
       <c r="C9">
-        <v>16.88751411812458</v>
+        <v>16.88751411812463</v>
       </c>
       <c r="D9">
-        <v>7.685801284226209</v>
+        <v>7.68580128422631</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.04042985070159</v>
+        <v>42.04042985070158</v>
       </c>
       <c r="G9">
-        <v>29.20288844072999</v>
+        <v>29.20288844072996</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.67677920972091</v>
+        <v>35.67677920972096</v>
       </c>
       <c r="J9">
-        <v>21.38642936097408</v>
+        <v>21.38642936097409</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.67718415740883</v>
+        <v>26.6771841574089</v>
       </c>
       <c r="C10">
-        <v>18.52169952268525</v>
+        <v>18.52169952268543</v>
       </c>
       <c r="D10">
-        <v>8.352294238071794</v>
+        <v>8.352294238071694</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.06527170549384</v>
+        <v>46.06527170549406</v>
       </c>
       <c r="G10">
-        <v>31.62434835687102</v>
+        <v>31.62434835687115</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.86256944966279</v>
+        <v>39.86256944966288</v>
       </c>
       <c r="J10">
-        <v>23.46501428558647</v>
+        <v>23.46501428558653</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74729412938903</v>
+        <v>27.74729412938898</v>
       </c>
       <c r="C11">
-        <v>19.24706029040147</v>
+        <v>19.24706029040134</v>
       </c>
       <c r="D11">
-        <v>8.657133943019588</v>
+        <v>8.657133943019611</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.99665251557339</v>
+        <v>47.99665251557319</v>
       </c>
       <c r="G11">
-        <v>32.74948851286426</v>
+        <v>32.7494885128641</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>41.77960609785598</v>
+        <v>41.77960609785597</v>
       </c>
       <c r="J11">
-        <v>24.38421361124876</v>
+        <v>24.38421361124869</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.14856507035557</v>
+        <v>28.14856507035569</v>
       </c>
       <c r="C12">
-        <v>19.51976173083569</v>
+        <v>19.51976173083566</v>
       </c>
       <c r="D12">
-        <v>8.773347509996748</v>
+        <v>8.773347509996656</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.72987548423212</v>
+        <v>48.72987548423222</v>
       </c>
       <c r="G12">
-        <v>33.24907339189733</v>
+        <v>33.24907339189741</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.51109020934569</v>
+        <v>42.5110902093457</v>
       </c>
       <c r="J12">
-        <v>24.7291842878637</v>
+        <v>24.72918428786377</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06230606572583</v>
+        <v>28.06230606572585</v>
       </c>
       <c r="C13">
-        <v>19.46110681910896</v>
+        <v>19.46110681910895</v>
       </c>
       <c r="D13">
-        <v>8.748273548653721</v>
+        <v>8.748273548653653</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.57184372264344</v>
+        <v>48.57184372264357</v>
       </c>
       <c r="G13">
-        <v>33.14139436402243</v>
+        <v>33.14139436402255</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42.35323376238573</v>
+        <v>42.35323376238581</v>
       </c>
       <c r="J13">
         <v>24.65501420717696</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78038122088653</v>
+        <v>27.78038122088638</v>
       </c>
       <c r="C14">
-        <v>19.26953107245231</v>
+        <v>19.26953107245227</v>
       </c>
       <c r="D14">
-        <v>8.666675536001366</v>
+        <v>8.666675536001376</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.05692510920409</v>
+        <v>48.05692510920386</v>
       </c>
       <c r="G14">
-        <v>32.79055390425005</v>
+        <v>32.79055390424987</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>41.83964925461122</v>
+        <v>41.8396492546111</v>
       </c>
       <c r="J14">
-        <v>24.41265234660749</v>
+        <v>24.41265234660737</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60720447239918</v>
+        <v>27.60720447239914</v>
       </c>
       <c r="C15">
-        <v>19.15194915806452</v>
+        <v>19.15194915806461</v>
       </c>
       <c r="D15">
         <v>8.616814930833911</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.7418299751788</v>
+        <v>47.74182997517875</v>
       </c>
       <c r="G15">
-        <v>32.59911072749252</v>
+        <v>32.59911072749247</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>41.52591535338972</v>
+        <v>41.52591535338981</v>
       </c>
       <c r="J15">
         <v>24.26381690888601</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.60665113736247</v>
+        <v>26.60665113736249</v>
       </c>
       <c r="C16">
-        <v>18.47398155925888</v>
+        <v>18.47398155925892</v>
       </c>
       <c r="D16">
-        <v>8.332447489543078</v>
+        <v>8.33244748954321</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.93919480238637</v>
+        <v>45.93919480238635</v>
       </c>
       <c r="G16">
-        <v>31.55143563595411</v>
+        <v>31.55143563595409</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>39.73783628570591</v>
+        <v>39.7378362857059</v>
       </c>
       <c r="J16">
-        <v>23.40446631472215</v>
+        <v>23.40446631472217</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.9849358607601</v>
+        <v>25.98493586076015</v>
       </c>
       <c r="C17">
-        <v>18.05384014604413</v>
+        <v>18.05384014604421</v>
       </c>
       <c r="D17">
-        <v>8.158749335250723</v>
+        <v>8.158749335250777</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.8344486760544</v>
+        <v>44.8344486760545</v>
       </c>
       <c r="G17">
         <v>30.91501736257288</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.64650190126838</v>
+        <v>38.64650190126853</v>
       </c>
       <c r="J17">
-        <v>22.8709638020517</v>
+        <v>22.87096380205178</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.62420429038124</v>
+        <v>25.62420429038126</v>
       </c>
       <c r="C18">
-        <v>17.81044312177549</v>
+        <v>17.81044312177556</v>
       </c>
       <c r="D18">
-        <v>8.058956852235964</v>
+        <v>8.058956852235932</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.23249858992356</v>
+        <v>44.23249858992351</v>
       </c>
       <c r="G18">
-        <v>30.55097502229385</v>
+        <v>30.55097502229381</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.01973529824095</v>
+        <v>38.0197352982409</v>
       </c>
       <c r="J18">
         <v>22.56157707036836</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.50150780048175</v>
+        <v>25.50150780048158</v>
       </c>
       <c r="C19">
-        <v>17.72771750990136</v>
+        <v>17.72771750990153</v>
       </c>
       <c r="D19">
-        <v>8.025174816976767</v>
+        <v>8.025174816976669</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.03352465007657</v>
+        <v>44.03352465007656</v>
       </c>
       <c r="G19">
-        <v>30.4280363183213</v>
+        <v>30.42803631832135</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.80758940519956</v>
+        <v>37.80758940519942</v>
       </c>
       <c r="J19">
-        <v>22.4563714337956</v>
+        <v>22.45637143379549</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.05143833192093</v>
+        <v>26.05143833192086</v>
       </c>
       <c r="C20">
-        <v>18.09874133663217</v>
+        <v>18.09874133663219</v>
       </c>
       <c r="D20">
-        <v>8.177224653303663</v>
+        <v>8.177224653303758</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.95205519640063</v>
+        <v>44.95205519640055</v>
       </c>
       <c r="G20">
-        <v>30.98255107874868</v>
+        <v>30.98255107874865</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.76255582157025</v>
+        <v>38.76255582157017</v>
       </c>
       <c r="J20">
-        <v>22.92801353406986</v>
+        <v>22.92801353406984</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.86328979501082</v>
+        <v>27.86328979501084</v>
       </c>
       <c r="C21">
-        <v>19.32584939019438</v>
+        <v>19.32584939019436</v>
       </c>
       <c r="D21">
-        <v>8.690616481006264</v>
+        <v>8.690616481006201</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.20810085141004</v>
+        <v>48.2081008514101</v>
       </c>
       <c r="G21">
-        <v>32.89355551102076</v>
+        <v>32.89355551102084</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.99031569881583</v>
+        <v>41.99031569881592</v>
       </c>
       <c r="J21">
-        <v>24.48391798729739</v>
+        <v>24.48391798729736</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.02488198503098</v>
+        <v>29.02488198503099</v>
       </c>
       <c r="C22">
-        <v>20.11673738610244</v>
+        <v>20.11673738610242</v>
       </c>
       <c r="D22">
-        <v>9.031087246550872</v>
+        <v>9.031087246550603</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.34828289691987</v>
+        <v>50.34828289691993</v>
       </c>
       <c r="G22">
-        <v>34.35188220213759</v>
+        <v>34.35188220213766</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44.13483594545632</v>
+        <v>44.13483594545626</v>
       </c>
       <c r="J22">
-        <v>25.4831238730268</v>
+        <v>25.48312387302679</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40667920367193</v>
+        <v>28.40667920367195</v>
       </c>
       <c r="C23">
-        <v>19.69538852874304</v>
+        <v>19.69538852874312</v>
       </c>
       <c r="D23">
-        <v>8.84868600517215</v>
+        <v>8.848686005172191</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,13 +1225,13 @@
         <v>49.20411635006413</v>
       </c>
       <c r="G23">
-        <v>33.57221855314931</v>
+        <v>33.57221855314929</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>42.98550669004433</v>
+        <v>42.98550669004435</v>
       </c>
       <c r="J23">
         <v>24.95116979494276</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.0213828951334</v>
+        <v>26.02138289513339</v>
       </c>
       <c r="C24">
-        <v>18.07844732146507</v>
+        <v>18.07844732146499</v>
       </c>
       <c r="D24">
-        <v>8.168871785374582</v>
+        <v>8.168871785374483</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.89888679787293</v>
+        <v>44.89888679787296</v>
       </c>
       <c r="G24">
-        <v>30.95201341662289</v>
+        <v>30.95201341662291</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.71008606194068</v>
+        <v>38.7100860619407</v>
       </c>
       <c r="J24">
         <v>22.90222971246483</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32679210390125</v>
+        <v>23.32679210390126</v>
       </c>
       <c r="C25">
-        <v>16.26639390978053</v>
+        <v>16.2663939097805</v>
       </c>
       <c r="D25">
-        <v>7.439087524831309</v>
+        <v>7.439087524831437</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.60093605473789</v>
+        <v>40.60093605473777</v>
       </c>
       <c r="G25">
-        <v>28.32587345959715</v>
+        <v>28.32587345959707</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.12747866252395</v>
+        <v>34.12747866252396</v>
       </c>
       <c r="J25">
-        <v>20.59389341763193</v>
+        <v>20.59389341763189</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.2169394135652</v>
+        <v>21.21619110950025</v>
       </c>
       <c r="C2">
-        <v>14.8570705773554</v>
+        <v>14.85615845066982</v>
       </c>
       <c r="D2">
-        <v>6.891595366351602</v>
+        <v>6.897043023584899</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.45108126227672</v>
+        <v>37.41660483402901</v>
       </c>
       <c r="G2">
-        <v>26.43406887683405</v>
+        <v>25.50378024957382</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>26.46762244619412</v>
       </c>
       <c r="I2">
-        <v>30.68334933059984</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18.79100613834667</v>
+        <v>30.68282809331733</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.79015276850019</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70048839955778</v>
+        <v>19.69999985774467</v>
       </c>
       <c r="C3">
-        <v>13.84907281016693</v>
+        <v>13.8484571778821</v>
       </c>
       <c r="D3">
-        <v>6.510099372928909</v>
+        <v>6.515004783395906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.30772859547373</v>
+        <v>35.27561349615313</v>
       </c>
       <c r="G3">
-        <v>25.17249317519369</v>
+        <v>23.98687427670066</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25.20481029555835</v>
       </c>
       <c r="I3">
-        <v>28.27253624771162</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.49778565617481</v>
+        <v>28.27221159432039</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.49721444879926</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72446830004789</v>
+        <v>18.72413072919982</v>
       </c>
       <c r="C4">
-        <v>13.20253489063204</v>
+        <v>13.20209936651942</v>
       </c>
       <c r="D4">
-        <v>6.269807343233332</v>
+        <v>6.274353096110755</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.986612740329</v>
+        <v>33.95600582586481</v>
       </c>
       <c r="G4">
-        <v>24.40742419763211</v>
+        <v>23.04984859613252</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.43904933567747</v>
       </c>
       <c r="I4">
-        <v>26.74608235288457</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>16.66670065664269</v>
+        <v>26.74586088872068</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.66629884694284</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.31514921719565</v>
+        <v>18.31487144155077</v>
       </c>
       <c r="C5">
-        <v>12.93193094527922</v>
+        <v>12.93156881054737</v>
       </c>
       <c r="D5">
-        <v>6.170270769544418</v>
+        <v>6.174663320490536</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.4470658549097</v>
+        <v>33.41708893408763</v>
       </c>
       <c r="G5">
-        <v>24.09807723146209</v>
+        <v>22.66665156319239</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.12943759281149</v>
       </c>
       <c r="I5">
-        <v>26.11137001136395</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16.31848124995516</v>
+        <v>26.11118703345799</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.31814796819905</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2464745928097</v>
+        <v>18.24620665286052</v>
       </c>
       <c r="C6">
-        <v>12.8865615659293</v>
+        <v>12.88621163052895</v>
       </c>
       <c r="D6">
-        <v>6.153643074888874</v>
+        <v>6.158009787781784</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.3574094896116</v>
+        <v>33.32753812480178</v>
       </c>
       <c r="G6">
-        <v>24.04685915184421</v>
+        <v>22.60294477902994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.07817659527655</v>
       </c>
       <c r="I6">
-        <v>26.00518327404567</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.26007702185932</v>
+        <v>26.00500649266453</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.25975510160298</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71899534075655</v>
+        <v>18.71865858281251</v>
       </c>
       <c r="C7">
-        <v>13.19891454431538</v>
+        <v>13.19848000937097</v>
       </c>
       <c r="D7">
-        <v>6.268471600869995</v>
+        <v>6.273015314401349</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.9793407441188</v>
+        <v>33.94874226286151</v>
       </c>
       <c r="G7">
-        <v>24.40324232486896</v>
+        <v>23.04468595710291</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.43486382196177</v>
       </c>
       <c r="I7">
-        <v>26.73757498480802</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.66204337936333</v>
+        <v>26.73735405313565</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.66164249530598</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.70320505226129</v>
+        <v>20.70254835525733</v>
       </c>
       <c r="C8">
-        <v>14.51512214877483</v>
+        <v>14.51431295905492</v>
       </c>
       <c r="D8">
-        <v>6.761244729247048</v>
+        <v>6.766511020166896</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.71310906980826</v>
+        <v>36.67943524971716</v>
       </c>
       <c r="G8">
-        <v>25.99708358647968</v>
+        <v>24.98191967525394</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>26.03019707371577</v>
       </c>
       <c r="I8">
-        <v>29.86100837968008</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>18.35264214747124</v>
+        <v>29.86055912782104</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.35188716136813</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.25279192923606</v>
+        <v>24.251417123014</v>
       </c>
       <c r="C9">
-        <v>16.88751411812463</v>
+        <v>16.88593021735268</v>
       </c>
       <c r="D9">
-        <v>7.68580128422631</v>
+        <v>7.692267103789233</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.04042985070158</v>
+        <v>42.00113935643567</v>
       </c>
       <c r="G9">
-        <v>29.20288844072996</v>
+        <v>28.74090568069648</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>29.23944729246016</v>
       </c>
       <c r="I9">
-        <v>35.67677920972096</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>21.38642936097409</v>
+        <v>35.67569202844501</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.38492524287232</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.6771841574089</v>
+        <v>26.67518465612659</v>
       </c>
       <c r="C10">
-        <v>18.52169952268543</v>
+        <v>18.51948006257756</v>
       </c>
       <c r="D10">
-        <v>8.352294238071694</v>
+        <v>8.359495799863858</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.06527170549406</v>
+        <v>46.02175383967291</v>
       </c>
       <c r="G10">
-        <v>31.62434835687115</v>
+        <v>31.49819175727266</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>31.66373971771664</v>
       </c>
       <c r="I10">
-        <v>39.86256944966288</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>23.46501428558653</v>
+        <v>39.8607933886211</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.46288460124049</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74729412938898</v>
+        <v>27.74497582448614</v>
       </c>
       <c r="C11">
-        <v>19.24706029040134</v>
+        <v>19.24452430327904</v>
       </c>
       <c r="D11">
-        <v>8.657133943019611</v>
+        <v>8.66463301214212</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.99665251557319</v>
+        <v>47.9513671003489</v>
       </c>
       <c r="G11">
-        <v>32.7494885128641</v>
+        <v>32.79139750443074</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>32.78881577088608</v>
       </c>
       <c r="I11">
-        <v>41.77960609785597</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>24.38421361124869</v>
+        <v>41.77742988981472</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.38176995175217</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.14856507035569</v>
+        <v>28.14611943252272</v>
       </c>
       <c r="C12">
-        <v>19.51976173083566</v>
+        <v>19.51710040420863</v>
       </c>
       <c r="D12">
-        <v>8.773347509996656</v>
+        <v>8.78095307201802</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.72987548423222</v>
+        <v>48.68391531805664</v>
       </c>
       <c r="G12">
-        <v>33.24907339189741</v>
+        <v>33.29160565068653</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>33.24076065317481</v>
       </c>
       <c r="I12">
-        <v>42.5110902093457</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>24.72918428786377</v>
+        <v>42.50874472852894</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.72661595276068</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06230606572585</v>
+        <v>28.05988817753527</v>
       </c>
       <c r="C13">
-        <v>19.46110681910895</v>
+        <v>19.45847276050417</v>
       </c>
       <c r="D13">
-        <v>8.748273548653653</v>
+        <v>8.755856467556631</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.57184372264357</v>
+        <v>48.52602919936867</v>
       </c>
       <c r="G13">
-        <v>33.14139436402255</v>
+        <v>33.18379226325837</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>33.13719762962711</v>
       </c>
       <c r="I13">
-        <v>42.35323376238581</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>24.65501420717696</v>
+        <v>42.35092563773371</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.65247301089463</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78038122088638</v>
+        <v>27.77805258408638</v>
       </c>
       <c r="C14">
-        <v>19.26953107245227</v>
+        <v>19.26698489406105</v>
       </c>
       <c r="D14">
-        <v>8.666675536001376</v>
+        <v>8.67418349617938</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.05692510920386</v>
+        <v>48.01158431943982</v>
       </c>
       <c r="G14">
-        <v>32.79055390424987</v>
+        <v>32.83251411452967</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>32.82412187941677</v>
       </c>
       <c r="I14">
-        <v>41.8396492546111</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>24.41265234660737</v>
+        <v>41.83745951505931</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.41019855663895</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60720447239914</v>
+        <v>27.60492958587169</v>
       </c>
       <c r="C15">
-        <v>19.15194915806461</v>
+        <v>19.14945604093777</v>
       </c>
       <c r="D15">
-        <v>8.616814930833911</v>
+        <v>8.624276142029839</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.74182997517875</v>
+        <v>47.69677850743457</v>
       </c>
       <c r="G15">
-        <v>32.59911072749247</v>
+        <v>32.61756701156738</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>32.63967366845129</v>
       </c>
       <c r="I15">
-        <v>41.52591535338981</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>24.26381690888601</v>
+        <v>41.52379561939391</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.26141584992656</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.60665113736249</v>
+        <v>26.60467164680769</v>
       </c>
       <c r="C16">
-        <v>18.47398155925892</v>
+        <v>18.47178211333296</v>
       </c>
       <c r="D16">
-        <v>8.33244748954321</v>
+        <v>8.339628799164469</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.93919480238635</v>
+        <v>45.8957919482266</v>
       </c>
       <c r="G16">
-        <v>31.55143563595409</v>
+        <v>31.41594786918465</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>31.5907399186348</v>
       </c>
       <c r="I16">
-        <v>39.7378362857059</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>23.40446631472217</v>
+        <v>39.73608423026771</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.40235643648614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.98493586076015</v>
+        <v>25.9831277195492</v>
       </c>
       <c r="C17">
-        <v>18.05384014604421</v>
+        <v>18.05181289323438</v>
       </c>
       <c r="D17">
-        <v>8.158749335250777</v>
+        <v>8.165748944281578</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.8344486760545</v>
+        <v>44.79205237132301</v>
       </c>
       <c r="G17">
-        <v>30.91501736257288</v>
+        <v>30.69617840346743</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>30.95356555260078</v>
       </c>
       <c r="I17">
-        <v>38.64650190126853</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>22.87096380205178</v>
+        <v>38.64495010586482</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.86902406947596</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.62420429038126</v>
+        <v>25.62249156839034</v>
       </c>
       <c r="C18">
-        <v>17.81044312177556</v>
+        <v>17.80851244508958</v>
       </c>
       <c r="D18">
-        <v>8.058956852235932</v>
+        <v>8.065848518329192</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.23249858992351</v>
+        <v>44.19097974292494</v>
       </c>
       <c r="G18">
-        <v>30.55097502229381</v>
+        <v>30.28284836544624</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>30.58909427971497</v>
       </c>
       <c r="I18">
-        <v>38.0197352982409</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>22.56157707036836</v>
+        <v>38.01829093586126</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.55973254994317</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.50150780048158</v>
+        <v>25.49982688833509</v>
       </c>
       <c r="C19">
-        <v>17.72771750990153</v>
+        <v>17.72581914796865</v>
       </c>
       <c r="D19">
-        <v>8.025174816976669</v>
+        <v>8.032029364580229</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.03352465007656</v>
+        <v>43.99220691418834</v>
       </c>
       <c r="G19">
-        <v>30.42803631832135</v>
+        <v>30.14298714191058</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>30.46601137381939</v>
       </c>
       <c r="I19">
-        <v>37.80758940519942</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>22.45637143379549</v>
+        <v>37.80618021183702</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.45455873466406</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.05143833192086</v>
+        <v>26.04961228497816</v>
       </c>
       <c r="C20">
-        <v>18.09874133663219</v>
+        <v>18.09669601822619</v>
       </c>
       <c r="D20">
-        <v>8.177224653303758</v>
+        <v>8.184243964720398</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.95205519640055</v>
+        <v>44.90955182377348</v>
       </c>
       <c r="G20">
-        <v>30.98255107874865</v>
+        <v>30.77272352742273</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>31.02117914131529</v>
       </c>
       <c r="I20">
-        <v>38.76255582157017</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>22.92801353406984</v>
+        <v>38.76098354134822</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.92605597322828</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.86328979501084</v>
+        <v>27.86093513797148</v>
       </c>
       <c r="C21">
-        <v>19.32584939019436</v>
+        <v>19.32327756261942</v>
       </c>
       <c r="D21">
-        <v>8.690616481006201</v>
+        <v>8.698146634084084</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.2081008514101</v>
+        <v>48.16262110168514</v>
       </c>
       <c r="G21">
-        <v>32.89355551102084</v>
+        <v>32.93564420257406</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>32.91272643669127</v>
       </c>
       <c r="I21">
-        <v>41.99031569881592</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>24.48391798729736</v>
+        <v>41.98809172044226</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.48143869571852</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.02488198503099</v>
+        <v>29.02214209515765</v>
       </c>
       <c r="C22">
-        <v>20.11673738610242</v>
+        <v>20.11378837254274</v>
       </c>
       <c r="D22">
-        <v>9.031087246550603</v>
+        <v>9.038914576319872</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.34828289691993</v>
+        <v>50.30082315918254</v>
       </c>
       <c r="G22">
-        <v>34.35188220213766</v>
+        <v>34.39579013918042</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>34.30271745801591</v>
       </c>
       <c r="I22">
-        <v>44.13483594545626</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>25.48312387302679</v>
+        <v>44.13207807880744</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.4802687427797</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40667920367195</v>
+        <v>28.40414926247341</v>
       </c>
       <c r="C23">
-        <v>19.69538852874312</v>
+        <v>19.69264451484177</v>
       </c>
       <c r="D23">
-        <v>8.848686005172191</v>
+        <v>8.856358479972034</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.20411635006413</v>
+        <v>49.1577183490411</v>
       </c>
       <c r="G23">
-        <v>33.57221855314929</v>
+        <v>33.6151540411583</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>33.55169281118051</v>
       </c>
       <c r="I23">
-        <v>42.98550669004435</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>24.95116979494276</v>
+        <v>42.98304611324922</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.94851911490836</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.02138289513339</v>
+        <v>26.01956495288777</v>
       </c>
       <c r="C24">
-        <v>18.07844732146499</v>
+        <v>18.0764101779449</v>
       </c>
       <c r="D24">
-        <v>8.168871785374483</v>
+        <v>8.175882200129477</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.89888679787296</v>
+        <v>44.85643183121136</v>
       </c>
       <c r="G24">
-        <v>30.95201341662291</v>
+        <v>30.73811607768209</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>30.99060535087682</v>
       </c>
       <c r="I24">
-        <v>38.7100860619407</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>22.90222971246483</v>
+        <v>38.70852306652627</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.90028021979291</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32679210390126</v>
+        <v>23.32562496769676</v>
       </c>
       <c r="C25">
-        <v>16.2663939097805</v>
+        <v>16.26502768069462</v>
       </c>
       <c r="D25">
-        <v>7.439087524831437</v>
+        <v>7.445253105164998</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.60093605473777</v>
+        <v>40.56312892705066</v>
       </c>
       <c r="G25">
-        <v>28.32587345959707</v>
+        <v>27.7269386779391</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>28.36144639918323</v>
       </c>
       <c r="I25">
-        <v>34.12747866252396</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>20.59389341763189</v>
+        <v>34.1265930382498</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.59260158859105</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.21619110950025</v>
+        <v>21.53553461889523</v>
       </c>
       <c r="C2">
-        <v>14.85615845066982</v>
+        <v>12.4309912052398</v>
       </c>
       <c r="D2">
-        <v>6.897043023584899</v>
+        <v>6.765157619915092</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.41660483402901</v>
+        <v>67.36924771117334</v>
       </c>
       <c r="G2">
-        <v>25.50378024957382</v>
+        <v>2.152581500202145</v>
       </c>
       <c r="H2">
-        <v>26.46762244619412</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30.68282809331733</v>
+        <v>6.992147712253484</v>
       </c>
       <c r="K2">
-        <v>18.79015276850019</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.772604480810879</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.74990388312965</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.69999985774467</v>
+        <v>20.38069029726508</v>
       </c>
       <c r="C3">
-        <v>13.8484571778821</v>
+        <v>11.4921886287607</v>
       </c>
       <c r="D3">
-        <v>6.515004783395906</v>
+        <v>6.376840845283982</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.27561349615313</v>
+        <v>64.37618990672748</v>
       </c>
       <c r="G3">
-        <v>23.98687427670066</v>
+        <v>2.167124958067927</v>
       </c>
       <c r="H3">
-        <v>25.20481029555835</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>28.27221159432039</v>
+        <v>6.964708295443388</v>
       </c>
       <c r="K3">
-        <v>17.49721444879926</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.822918814094411</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.44993562330596</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72413072919982</v>
+        <v>19.66773869584121</v>
       </c>
       <c r="C4">
-        <v>13.20209936651942</v>
+        <v>10.89111491439939</v>
       </c>
       <c r="D4">
-        <v>6.274353096110755</v>
+        <v>6.131917323799243</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.95600582586481</v>
+        <v>62.51926010269548</v>
       </c>
       <c r="G4">
-        <v>23.04984859613252</v>
+        <v>2.176203434526013</v>
       </c>
       <c r="H4">
-        <v>24.43904933567747</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>26.74586088872068</v>
+        <v>6.948463845881641</v>
       </c>
       <c r="K4">
-        <v>16.66629884694284</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.857232070301554</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.27680757276374</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.31487144155077</v>
+        <v>19.37649427789236</v>
       </c>
       <c r="C5">
-        <v>12.93156881054737</v>
+        <v>10.63977088878984</v>
       </c>
       <c r="D5">
-        <v>6.174663320490536</v>
+        <v>6.030483288067673</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.41708893408763</v>
+        <v>61.75803206128808</v>
       </c>
       <c r="G5">
-        <v>22.66665156319239</v>
+        <v>2.179945437173969</v>
       </c>
       <c r="H5">
-        <v>24.12943759281149</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>26.11118703345799</v>
+        <v>6.941974920907111</v>
       </c>
       <c r="K5">
-        <v>16.31814796819905</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.872054977159427</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.20900579801567</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24620665286052</v>
+        <v>19.32809978514889</v>
       </c>
       <c r="C6">
-        <v>12.88621163052895</v>
+        <v>10.59764315136943</v>
       </c>
       <c r="D6">
-        <v>6.158009787781784</v>
+        <v>6.013542681096296</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.32753812480178</v>
+        <v>61.63136994353855</v>
       </c>
       <c r="G6">
-        <v>22.60294477902994</v>
+        <v>2.180569496062432</v>
       </c>
       <c r="H6">
-        <v>24.07817659527655</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>26.00500649266453</v>
+        <v>6.940904768049741</v>
       </c>
       <c r="K6">
-        <v>16.25975510160298</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.874566494688722</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.19791256586274</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71865858281251</v>
+        <v>19.66381333925111</v>
       </c>
       <c r="C7">
-        <v>13.19848000937097</v>
+        <v>10.88775137726491</v>
       </c>
       <c r="D7">
-        <v>6.273015314401349</v>
+        <v>6.130555906128728</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.94874226286151</v>
+        <v>62.50901167684479</v>
       </c>
       <c r="G7">
-        <v>23.04468595710291</v>
+        <v>2.176253722285996</v>
       </c>
       <c r="H7">
-        <v>24.43486382196177</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>26.73735405313565</v>
+        <v>6.948375830447609</v>
       </c>
       <c r="K7">
-        <v>16.66164249530598</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.857428601150658</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.27588208085765</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.70254835525733</v>
+        <v>21.13827819155401</v>
       </c>
       <c r="C8">
-        <v>14.51431295905492</v>
+        <v>12.11227777859692</v>
       </c>
       <c r="D8">
-        <v>6.766511020166896</v>
+        <v>6.632612117480985</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.67943524971716</v>
+        <v>66.34135973069507</v>
       </c>
       <c r="G8">
-        <v>24.98191967525394</v>
+        <v>2.157568417501583</v>
       </c>
       <c r="H8">
-        <v>26.03019707371577</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>29.86055912782104</v>
+        <v>6.982548076111518</v>
       </c>
       <c r="K8">
-        <v>18.35188716136813</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.789230326886045</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.64416124364087</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.251417123014</v>
+        <v>23.99230558355308</v>
       </c>
       <c r="C9">
-        <v>16.88593021735268</v>
+        <v>14.3284214080088</v>
       </c>
       <c r="D9">
-        <v>7.692267103789233</v>
+        <v>7.566431217899922</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.00113935643567</v>
+        <v>73.6996082946844</v>
       </c>
       <c r="G9">
-        <v>28.74090568069648</v>
+        <v>2.121848324240252</v>
       </c>
       <c r="H9">
-        <v>29.23944729246016</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>35.67569202844501</v>
+        <v>7.055419394731663</v>
       </c>
       <c r="K9">
-        <v>21.38492524287232</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.683652208567245</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.45580767427323</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.67518465612659</v>
+        <v>26.12625940709978</v>
       </c>
       <c r="C10">
-        <v>18.51948006257756</v>
+        <v>15.86042018304389</v>
       </c>
       <c r="D10">
-        <v>8.359495799863858</v>
+        <v>8.224480029690211</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.02175383967291</v>
+        <v>79.01808395457178</v>
       </c>
       <c r="G10">
-        <v>31.49819175727266</v>
+        <v>2.095749512701607</v>
       </c>
       <c r="H10">
-        <v>31.66373971771664</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>39.8607933886211</v>
+        <v>7.11426274882835</v>
       </c>
       <c r="K10">
-        <v>23.46288460124049</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.624887954387279</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.11020395305857</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74497582448614</v>
+        <v>27.18198985112578</v>
       </c>
       <c r="C11">
-        <v>19.24452430327904</v>
+        <v>16.54095800238872</v>
       </c>
       <c r="D11">
-        <v>8.66463301214212</v>
+        <v>8.518908864550633</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.9513671003489</v>
+        <v>81.42486990518269</v>
       </c>
       <c r="G11">
-        <v>32.79139750443074</v>
+        <v>2.083794832367234</v>
       </c>
       <c r="H11">
-        <v>32.78881577088608</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>41.77742988981472</v>
+        <v>7.142655578960658</v>
       </c>
       <c r="K11">
-        <v>24.38176995175217</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.602676731923672</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.42177426651524</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.14611943252272</v>
+        <v>27.57953308634488</v>
       </c>
       <c r="C12">
-        <v>19.51710040420863</v>
+        <v>16.79675579766258</v>
       </c>
       <c r="D12">
-        <v>8.78095307201802</v>
+        <v>8.629828573559223</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.68391531805664</v>
+        <v>82.33530984727881</v>
       </c>
       <c r="G12">
-        <v>33.29160565068653</v>
+        <v>2.079244644243268</v>
       </c>
       <c r="H12">
-        <v>33.24076065317481</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>42.50874472852894</v>
+        <v>7.153688793036928</v>
       </c>
       <c r="K12">
-        <v>24.72661595276068</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.594960013457779</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.54190622748803</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.05988817753527</v>
+        <v>27.49400562768874</v>
       </c>
       <c r="C13">
-        <v>19.45847276050417</v>
+        <v>16.74174200044897</v>
       </c>
       <c r="D13">
-        <v>8.755856467556631</v>
+        <v>8.605963053940856</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.52602919936867</v>
+        <v>82.13925593001828</v>
       </c>
       <c r="G13">
-        <v>33.18379226325837</v>
+        <v>2.080225844419907</v>
       </c>
       <c r="H13">
-        <v>33.13719762962711</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>42.35092563773371</v>
+        <v>7.151299218595081</v>
       </c>
       <c r="K13">
-        <v>24.65247301089463</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.596590293214737</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.51593523205166</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.77805258408638</v>
+        <v>27.21473765235216</v>
       </c>
       <c r="C14">
-        <v>19.26698489406105</v>
+        <v>16.56203801535299</v>
       </c>
       <c r="D14">
-        <v>8.67418349617938</v>
+        <v>8.528044910005681</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.01158431943982</v>
+        <v>81.49978552751529</v>
       </c>
       <c r="G14">
-        <v>32.83251411452967</v>
+        <v>2.083421023360151</v>
       </c>
       <c r="H14">
-        <v>32.82412187941677</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>41.83745951505931</v>
+        <v>7.143557341951492</v>
       </c>
       <c r="K14">
-        <v>24.41019855663895</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.602027682141149</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.43161352437385</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60492958587169</v>
+        <v>27.04340271258548</v>
       </c>
       <c r="C15">
-        <v>19.14945604093777</v>
+        <v>16.45173040166707</v>
       </c>
       <c r="D15">
-        <v>8.624276142029839</v>
+        <v>8.480247598388534</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.69677850743457</v>
+        <v>81.10799741488458</v>
       </c>
       <c r="G15">
-        <v>32.61756701156738</v>
+        <v>2.085374767383498</v>
       </c>
       <c r="H15">
-        <v>32.63967366845129</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>41.52379561939391</v>
+        <v>7.138853441758597</v>
       </c>
       <c r="K15">
-        <v>24.26141584992656</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.605450073864739</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.38024896776654</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.60467164680769</v>
+        <v>26.05692286373572</v>
       </c>
       <c r="C16">
-        <v>18.47178211333296</v>
+        <v>15.81565245340426</v>
       </c>
       <c r="D16">
-        <v>8.339628799164469</v>
+        <v>8.205150018268663</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.8957919482266</v>
+        <v>78.86060730593312</v>
       </c>
       <c r="G16">
-        <v>31.41594786918465</v>
+        <v>2.096528196240016</v>
       </c>
       <c r="H16">
-        <v>31.5907399186348</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>39.73608423026771</v>
+        <v>7.112443801724537</v>
       </c>
       <c r="K16">
-        <v>23.40235643648614</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.626434093495495</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.09013325483636</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.9831277195492</v>
+        <v>25.46469673429842</v>
       </c>
       <c r="C17">
-        <v>18.05181289323438</v>
+        <v>15.42154016841256</v>
       </c>
       <c r="D17">
-        <v>8.165748944281578</v>
+        <v>8.035210488818457</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.79205237132301</v>
+        <v>77.47919077972134</v>
       </c>
       <c r="G17">
-        <v>30.69617840346743</v>
+        <v>2.103341910752088</v>
       </c>
       <c r="H17">
-        <v>30.95356555260078</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>38.64495010586482</v>
+        <v>7.096689923153822</v>
       </c>
       <c r="K17">
-        <v>22.86902406947596</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.640494260439864</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.91580495942439</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.62249156839034</v>
+        <v>25.15442463759443</v>
       </c>
       <c r="C18">
-        <v>17.80851244508958</v>
+        <v>15.19328496014791</v>
       </c>
       <c r="D18">
-        <v>8.065848518329192</v>
+        <v>7.936992652538772</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.19097974292494</v>
+        <v>76.68338077200436</v>
       </c>
       <c r="G18">
-        <v>30.28284836544624</v>
+        <v>2.107254028895683</v>
       </c>
       <c r="H18">
-        <v>30.58909427971497</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>38.01829093586126</v>
+        <v>7.08777832191783</v>
       </c>
       <c r="K18">
-        <v>22.55973254994317</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.649003813387411</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.81683106636855</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.49982688833509</v>
+        <v>25.04930800619402</v>
       </c>
       <c r="C19">
-        <v>17.72581914796865</v>
+        <v>15.11571920608096</v>
       </c>
       <c r="D19">
-        <v>8.032029364580229</v>
+        <v>7.90365301121414</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.99220691418834</v>
+        <v>76.41369627120559</v>
       </c>
       <c r="G19">
-        <v>30.14298714191058</v>
+        <v>2.108577726738393</v>
       </c>
       <c r="H19">
-        <v>30.46601137381939</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>37.80618021183702</v>
+        <v>7.084785379760364</v>
       </c>
       <c r="K19">
-        <v>22.45455873466406</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.651956337285586</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.78353881110084</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.04961228497816</v>
+        <v>25.52209256772079</v>
       </c>
       <c r="C20">
-        <v>18.09669601822619</v>
+        <v>15.46365381403652</v>
       </c>
       <c r="D20">
-        <v>8.184243964720398</v>
+        <v>8.053348950100732</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.90955182377348</v>
+        <v>77.62636965120893</v>
       </c>
       <c r="G20">
-        <v>30.77272352742273</v>
+        <v>2.102617374768131</v>
       </c>
       <c r="H20">
-        <v>31.02117914131529</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>38.76098354134822</v>
+        <v>7.098351146281499</v>
       </c>
       <c r="K20">
-        <v>22.92605597322828</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.63895350552595</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.93422752214345</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.86093513797148</v>
+        <v>27.2968217481097</v>
       </c>
       <c r="C21">
-        <v>19.32327756261942</v>
+        <v>16.61486922829683</v>
       </c>
       <c r="D21">
-        <v>8.698146634084084</v>
+        <v>8.550945697646396</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.16262110168514</v>
+        <v>81.68763110717255</v>
       </c>
       <c r="G21">
-        <v>32.93564420257406</v>
+        <v>2.082483252724697</v>
       </c>
       <c r="H21">
-        <v>32.91272643669127</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>41.98809172044226</v>
+        <v>7.145823255180785</v>
       </c>
       <c r="K21">
-        <v>24.48143869571852</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.600411362064813</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.45632113492503</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.02214209515765</v>
+        <v>28.45037815498224</v>
       </c>
       <c r="C22">
-        <v>20.11378837254274</v>
+        <v>17.35640762578068</v>
       </c>
       <c r="D22">
-        <v>9.038914576319872</v>
+        <v>8.872896393887173</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.30082315918254</v>
+        <v>84.33694902303594</v>
       </c>
       <c r="G22">
-        <v>34.39579013918042</v>
+        <v>2.069182294611331</v>
       </c>
       <c r="H22">
-        <v>34.30271745801591</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>44.13207807880744</v>
+        <v>7.178518542652751</v>
       </c>
       <c r="K22">
-        <v>25.4802687427797</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.57929404218321</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.87965368518563</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40414926247341</v>
+        <v>27.83567544287622</v>
       </c>
       <c r="C23">
-        <v>19.69264451484177</v>
+        <v>16.96145760066142</v>
       </c>
       <c r="D23">
-        <v>8.856358479972034</v>
+        <v>8.701309606180944</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.1577183490411</v>
+        <v>82.92304466377647</v>
       </c>
       <c r="G23">
-        <v>33.6151540411583</v>
+        <v>2.076298595097006</v>
       </c>
       <c r="H23">
-        <v>33.55169281118051</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>42.98304611324922</v>
+        <v>7.160897496498577</v>
       </c>
       <c r="K23">
-        <v>24.94851911490836</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.590175630198443</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.62009225448162</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.01956495288777</v>
+        <v>25.49614538752606</v>
       </c>
       <c r="C24">
-        <v>18.0764101779449</v>
+        <v>15.44461948407435</v>
       </c>
       <c r="D24">
-        <v>8.175882200129477</v>
+        <v>8.045150172673145</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.85643183121136</v>
+        <v>77.5598351749897</v>
       </c>
       <c r="G24">
-        <v>30.73811607768209</v>
+        <v>2.102944952783826</v>
       </c>
       <c r="H24">
-        <v>30.99060535087682</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>38.70852306652627</v>
+        <v>7.097599657538687</v>
       </c>
       <c r="K24">
-        <v>22.90028021979291</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.639648756638984</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.92589479951261</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32562496769676</v>
+        <v>23.22475041701389</v>
       </c>
       <c r="C25">
-        <v>16.26502768069462</v>
+        <v>13.74713478811285</v>
       </c>
       <c r="D25">
-        <v>7.445253105164998</v>
+        <v>7.319028846821738</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.56312892705066</v>
+        <v>71.7257329471704</v>
       </c>
       <c r="G25">
-        <v>27.7269386779391</v>
+        <v>2.131452339305557</v>
       </c>
       <c r="H25">
-        <v>28.36144639918323</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>34.1265930382498</v>
+        <v>7.034914825570139</v>
       </c>
       <c r="K25">
-        <v>20.59260158859105</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.70904394263668</v>
       </c>
       <c r="M25">
+        <v>13.22636121684451</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.53553461889523</v>
+        <v>11.004372081584</v>
       </c>
       <c r="C2">
-        <v>12.4309912052398</v>
+        <v>5.926737903354675</v>
       </c>
       <c r="D2">
-        <v>6.765157619915092</v>
+        <v>4.955372698142243</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>67.36924771117334</v>
+        <v>15.77758872786178</v>
       </c>
       <c r="G2">
-        <v>2.152581500202145</v>
+        <v>18.68858911007659</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.886917126916261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.992147712253484</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.872355416466297</v>
       </c>
       <c r="L2">
-        <v>5.772604480810879</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.74990388312965</v>
+        <v>29.930512812051</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.29457405001906</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.48249013047193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.38069029726508</v>
+        <v>10.36437033184873</v>
       </c>
       <c r="C3">
-        <v>11.4921886287607</v>
+        <v>5.867885285723096</v>
       </c>
       <c r="D3">
-        <v>6.376840845283982</v>
+        <v>4.741184842483334</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>64.37618990672748</v>
+        <v>15.45823479460871</v>
       </c>
       <c r="G3">
-        <v>2.167124958067927</v>
+        <v>18.29657857411975</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.933421473416247</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.964708295443388</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.453725377986128</v>
       </c>
       <c r="L3">
-        <v>5.822918814094411</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.44993562330596</v>
+        <v>27.64745488930286</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.51887165970167</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.46312714199859</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.66773869584121</v>
+        <v>9.949104032658349</v>
       </c>
       <c r="C4">
-        <v>10.89111491439939</v>
+        <v>5.830988865956951</v>
       </c>
       <c r="D4">
-        <v>6.131917323799243</v>
+        <v>4.603652655550125</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>62.51926010269548</v>
+        <v>15.27292784316424</v>
       </c>
       <c r="G4">
-        <v>2.176203434526013</v>
+        <v>18.07373819838401</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.966326768223762</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.948463845881641</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.185042681238494</v>
       </c>
       <c r="L4">
-        <v>5.857232070301554</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.27680757276374</v>
+        <v>26.19371744052603</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.65820517764489</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.46137959616129</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.37649427789236</v>
+        <v>9.77432275677479</v>
       </c>
       <c r="C5">
-        <v>10.63977088878984</v>
+        <v>5.815798035964974</v>
       </c>
       <c r="D5">
-        <v>6.030483288067673</v>
+        <v>4.54613970468502</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>61.75803206128808</v>
+        <v>15.20015007350462</v>
       </c>
       <c r="G5">
-        <v>2.179945437173969</v>
+        <v>17.98739012534504</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.980796849710292</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.941974920907111</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.0727268201549</v>
       </c>
       <c r="L5">
-        <v>5.872054977159427</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.20900579801567</v>
+        <v>25.5874852973728</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.71545822080426</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.46312335272633</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.32809978514889</v>
+        <v>9.744966574994201</v>
       </c>
       <c r="C6">
-        <v>10.59764315136943</v>
+        <v>5.813267232378859</v>
       </c>
       <c r="D6">
-        <v>6.013542681096296</v>
+        <v>4.536502563815545</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>61.63136994353855</v>
+        <v>15.18823126627074</v>
       </c>
       <c r="G6">
-        <v>2.180569496062432</v>
+        <v>17.9733204076663</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.98326272044297</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.940904768049741</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.053909418114452</v>
       </c>
       <c r="L6">
-        <v>5.874566494688722</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.19791256586274</v>
+        <v>25.4859655021952</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.72499547304306</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.46355846940148</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.66381333925111</v>
+        <v>9.946769294462463</v>
       </c>
       <c r="C7">
-        <v>10.88775137726491</v>
+        <v>5.830784580186775</v>
       </c>
       <c r="D7">
-        <v>6.130555906128728</v>
+        <v>4.602882891937093</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>62.50901167684479</v>
+        <v>15.27193522819145</v>
       </c>
       <c r="G7">
-        <v>2.176253722285996</v>
+        <v>18.07255566355193</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.966517664368979</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.948375830447609</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.183539247196791</v>
       </c>
       <c r="L7">
-        <v>5.857428601150658</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.27588208085765</v>
+        <v>26.18559849018827</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.65897531128271</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.46139329402005</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.13827819155401</v>
+        <v>10.78835568591108</v>
       </c>
       <c r="C8">
-        <v>12.11227777859692</v>
+        <v>5.906626053689506</v>
       </c>
       <c r="D8">
-        <v>6.632612117480985</v>
+        <v>4.882796172447655</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>66.34135973069507</v>
+        <v>15.66525624492461</v>
       </c>
       <c r="G8">
-        <v>2.157568417501583</v>
+        <v>18.54970466324133</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.902028301436621</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.982548076111518</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.730485915364946</v>
       </c>
       <c r="L8">
-        <v>5.789230326886045</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.64416124364087</v>
+        <v>29.15360112495266</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.37162032874407</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.47365235603926</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99230558355308</v>
+        <v>12.25999841516387</v>
       </c>
       <c r="C9">
-        <v>14.3284214080088</v>
+        <v>6.047510251630692</v>
       </c>
       <c r="D9">
-        <v>7.566431217899922</v>
+        <v>5.38217419325326</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.6996082946844</v>
+        <v>16.52070411562251</v>
       </c>
       <c r="G9">
-        <v>2.121848324240252</v>
+        <v>19.62784922317165</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.811639785234743</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.055419394731663</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.70668901294328</v>
       </c>
       <c r="L9">
-        <v>5.683652208567245</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.45580767427323</v>
+        <v>34.60248982734931</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10.81734349416817</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.58235516100032</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.12625940709978</v>
+        <v>13.23038736470923</v>
       </c>
       <c r="C10">
-        <v>15.86042018304389</v>
+        <v>6.14333352567362</v>
       </c>
       <c r="D10">
-        <v>8.224480029690211</v>
+        <v>5.716787768012618</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.01808395457178</v>
+        <v>17.19867442449696</v>
       </c>
       <c r="G10">
-        <v>2.095749512701607</v>
+        <v>20.50772517058324</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.76942387258379</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.11426274882835</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.36029213337482</v>
       </c>
       <c r="L10">
-        <v>5.624887954387279</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.11020395305857</v>
+        <v>38.44918519929452</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.40967634811224</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.71956476478741</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.18198985112578</v>
+        <v>13.6474293046213</v>
       </c>
       <c r="C11">
-        <v>16.54095800238872</v>
+        <v>6.184443516858447</v>
       </c>
       <c r="D11">
-        <v>8.518908864550633</v>
+        <v>5.861611405823157</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.42486990518269</v>
+        <v>17.51754581138199</v>
       </c>
       <c r="G11">
-        <v>2.083794832367234</v>
+        <v>20.92738035758692</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.755963238256953</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.142655578960658</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.64284447515117</v>
       </c>
       <c r="L11">
-        <v>5.602676731923672</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.42177426651524</v>
+        <v>40.18599056909832</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10.22234905993154</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>12.79567345565293</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.57953308634488</v>
+        <v>13.80181134353105</v>
       </c>
       <c r="C12">
-        <v>16.79675579766258</v>
+        <v>6.199566277001186</v>
       </c>
       <c r="D12">
-        <v>8.629828573559223</v>
+        <v>5.915356789173643</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.33530984727881</v>
+        <v>17.63978708018569</v>
       </c>
       <c r="G12">
-        <v>2.079244644243268</v>
+        <v>21.0891324776231</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.751733003223552</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.153688793036928</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.74762965481796</v>
       </c>
       <c r="L12">
-        <v>5.594960013457779</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.54190622748803</v>
+        <v>40.84412353215336</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10.15094896987735</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>12.82656612463062</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.49400562768874</v>
+        <v>13.76872060711098</v>
       </c>
       <c r="C13">
-        <v>16.74174200044897</v>
+        <v>6.196330737204792</v>
       </c>
       <c r="D13">
-        <v>8.605963053940856</v>
+        <v>5.903831057858168</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.13925593001828</v>
+        <v>17.61339389723077</v>
       </c>
       <c r="G13">
-        <v>2.080225844419907</v>
+        <v>21.05416890472787</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.752604848438025</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.151299218595081</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.72516211681479</v>
       </c>
       <c r="L13">
-        <v>5.596590293214737</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.51593523205166</v>
+        <v>40.70231909073917</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.16635049368422</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>12.8198190051739</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.21473765235216</v>
+        <v>13.66020163458094</v>
       </c>
       <c r="C14">
-        <v>16.56203801535299</v>
+        <v>6.18569716999388</v>
       </c>
       <c r="D14">
-        <v>8.528044910005681</v>
+        <v>5.866055235362161</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.49978552751529</v>
+        <v>17.52757278675879</v>
       </c>
       <c r="G14">
-        <v>2.083421023360151</v>
+        <v>20.94063052715978</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.755597603615286</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.143557341951492</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.65151006020881</v>
       </c>
       <c r="L14">
-        <v>5.602027682141149</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.43161352437385</v>
+        <v>40.2401110711957</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>10.21648550589894</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12.79817288608779</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.04340271258548</v>
+        <v>13.59326811070991</v>
       </c>
       <c r="C15">
-        <v>16.45173040166707</v>
+        <v>6.179122910190333</v>
       </c>
       <c r="D15">
-        <v>8.480247598388534</v>
+        <v>5.842772689956507</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.10799741488458</v>
+        <v>17.4751990647338</v>
       </c>
       <c r="G15">
-        <v>2.085374767383498</v>
+        <v>20.87145657730963</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.757544879121915</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.138853441758597</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.60610535784842</v>
       </c>
       <c r="L15">
-        <v>5.605450073864739</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.38024896776654</v>
+        <v>39.95713281873129</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10.24712771719854</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.78518696096142</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05692286373572</v>
+        <v>13.20263899280441</v>
       </c>
       <c r="C16">
-        <v>15.81565245340426</v>
+        <v>6.140589920253432</v>
       </c>
       <c r="D16">
-        <v>8.205150018268663</v>
+        <v>5.707171634642297</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.86060730593312</v>
+        <v>17.17804444735524</v>
       </c>
       <c r="G16">
-        <v>2.096528196240016</v>
+        <v>20.4806934550837</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.770422647832173</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.112443801724537</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.34152213457935</v>
       </c>
       <c r="L16">
-        <v>5.626434093495495</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.09013325483636</v>
+        <v>38.3356024115424</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>10.42186541052967</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.71487513785981</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46469673429842</v>
+        <v>12.95672994229626</v>
       </c>
       <c r="C17">
-        <v>15.42154016841256</v>
+        <v>6.11625944798816</v>
       </c>
       <c r="D17">
-        <v>8.035210488818457</v>
+        <v>5.62206796217519</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.47919077972134</v>
+        <v>16.99841461985457</v>
       </c>
       <c r="G17">
-        <v>2.103341910752088</v>
+        <v>20.24596583448863</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.779823057875035</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.096689923153822</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.17536525924212</v>
       </c>
       <c r="L17">
-        <v>5.640494260439864</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.91580495942439</v>
+        <v>37.33896444335578</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>10.52845743170628</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.67532031394612</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.15442463759443</v>
+        <v>12.81299589051928</v>
       </c>
       <c r="C18">
-        <v>15.19328496014791</v>
+        <v>6.102037999001198</v>
       </c>
       <c r="D18">
-        <v>7.936992652538772</v>
+        <v>5.572424620640472</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.68338077200436</v>
+        <v>16.89608070702765</v>
       </c>
       <c r="G18">
-        <v>2.107254028895683</v>
+        <v>20.11277793928834</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.785768059035577</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.08777832191783</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.07841095536486</v>
       </c>
       <c r="L18">
-        <v>5.649003813387411</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.81683106636855</v>
+        <v>36.7643246879136</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>10.58960358065931</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.65385183436876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.04930800619402</v>
+        <v>12.76393704310539</v>
       </c>
       <c r="C19">
-        <v>15.11571920608096</v>
+        <v>6.097186196038336</v>
       </c>
       <c r="D19">
-        <v>7.90365301121414</v>
+        <v>5.555498034695216</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.41369627120559</v>
+        <v>16.86160192374076</v>
       </c>
       <c r="G19">
-        <v>2.108577726738393</v>
+        <v>20.06799461005724</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.787872106572265</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.084785379760364</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.04534849462881</v>
       </c>
       <c r="L19">
-        <v>5.651956337285586</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.78353881110084</v>
+        <v>36.56945998731945</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>10.61028379460975</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.64680013405349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.52209256772079</v>
+        <v>12.98314500040001</v>
       </c>
       <c r="C20">
-        <v>15.46365381403652</v>
+        <v>6.118873555388255</v>
       </c>
       <c r="D20">
-        <v>8.053348950100732</v>
+        <v>5.631199449861667</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.62636965120893</v>
+        <v>17.01743478313292</v>
       </c>
       <c r="G20">
-        <v>2.102617374768131</v>
+        <v>20.2707642478</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.778766375331933</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.098351146281499</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.19319691420108</v>
       </c>
       <c r="L20">
-        <v>5.63895350552595</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.93422752214345</v>
+        <v>37.44518826752604</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.51712862238226</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.6793975303981</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.2968217481097</v>
+        <v>13.69217274932494</v>
       </c>
       <c r="C21">
-        <v>16.61486922829683</v>
+        <v>6.188833385639295</v>
       </c>
       <c r="D21">
-        <v>8.550945697646396</v>
+        <v>5.877180932051221</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.68763110717255</v>
+        <v>17.55274005450661</v>
       </c>
       <c r="G21">
-        <v>2.082483252724697</v>
+        <v>20.9739019255744</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.754694702232253</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.145823255180785</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.67320420271055</v>
       </c>
       <c r="L21">
-        <v>5.600411362064813</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.45632113492503</v>
+        <v>40.37583901464072</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.20177400555213</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>12.80447380475332</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.45037815498224</v>
+        <v>14.13489133058546</v>
       </c>
       <c r="C22">
-        <v>17.35640762578068</v>
+        <v>6.231905708874669</v>
       </c>
       <c r="D22">
-        <v>8.872896393887173</v>
+        <v>6.031537489150669</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.33694902303594</v>
+        <v>17.91129600059136</v>
       </c>
       <c r="G22">
-        <v>2.069182294611331</v>
+        <v>21.45003443923799</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.744034732761546</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.178518542652751</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.97397953180258</v>
       </c>
       <c r="L22">
-        <v>5.57929404218321</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.87965368518563</v>
+        <v>42.29536681131916</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.992840648402591</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>12.89834611048133</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.83567544287622</v>
+        <v>13.90050928313459</v>
       </c>
       <c r="C23">
-        <v>16.96145760066142</v>
+        <v>6.209194955150454</v>
       </c>
       <c r="D23">
-        <v>8.701309606180944</v>
+        <v>5.949752186828053</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.92304466377647</v>
+        <v>17.71913061321087</v>
       </c>
       <c r="G23">
-        <v>2.076298595097006</v>
+        <v>21.19436963688008</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.74924659867736</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.160897496498577</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.81466518251032</v>
       </c>
       <c r="L23">
-        <v>5.590175630198443</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.62009225448162</v>
+        <v>41.26954605241922</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.10468949098198</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>12.84709992990437</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.49614538752606</v>
+        <v>12.97121009369811</v>
       </c>
       <c r="C24">
-        <v>15.44461948407435</v>
+        <v>6.117692438510946</v>
       </c>
       <c r="D24">
-        <v>8.045150172673145</v>
+        <v>5.627073332333612</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.5598351749897</v>
+        <v>17.00883284546153</v>
       </c>
       <c r="G24">
-        <v>2.102944952783826</v>
+        <v>20.25954740584769</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.77924242084464</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.097599657538687</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.18513966606292</v>
       </c>
       <c r="L24">
-        <v>5.639648756638984</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.92589479951261</v>
+        <v>37.39716981113155</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.52225078376712</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.67755026623913</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.22475041701389</v>
+        <v>11.88122338632985</v>
       </c>
       <c r="C25">
-        <v>13.74713478811285</v>
+        <v>6.010509471828339</v>
       </c>
       <c r="D25">
-        <v>7.319028846821738</v>
+        <v>5.252609938618803</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>71.7257329471704</v>
+        <v>16.28046735334537</v>
       </c>
       <c r="G25">
-        <v>2.131452339305557</v>
+        <v>19.32083628399566</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.832007180886793</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.034914825570139</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.45343919683515</v>
       </c>
       <c r="L25">
-        <v>5.70904394263668</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.22636121684451</v>
+        <v>33.16181149786589</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>10.96686049272563</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.54329223526179</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.004372081584</v>
+        <v>7.15368166566049</v>
       </c>
       <c r="C2">
-        <v>5.926737903354675</v>
+        <v>6.463522822095095</v>
       </c>
       <c r="D2">
-        <v>4.955372698142243</v>
+        <v>4.464487150825882</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.77758872786178</v>
+        <v>21.22672403823336</v>
       </c>
       <c r="G2">
-        <v>18.68858911007659</v>
+        <v>23.47869156624686</v>
       </c>
       <c r="H2">
-        <v>7.886917126916261</v>
+        <v>12.99162733252838</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.872355416466297</v>
+        <v>8.095678867533417</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.930512812051</v>
+        <v>19.97100899796924</v>
       </c>
       <c r="N2">
-        <v>11.29457405001906</v>
+        <v>17.79734019690946</v>
       </c>
       <c r="O2">
-        <v>12.48249013047193</v>
+        <v>19.06319147766586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.36437033184873</v>
+        <v>6.888810264094829</v>
       </c>
       <c r="C3">
-        <v>5.867885285723096</v>
+        <v>6.439609489212041</v>
       </c>
       <c r="D3">
-        <v>4.741184842483334</v>
+        <v>4.37717067640287</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.45823479460871</v>
+        <v>21.23777867201598</v>
       </c>
       <c r="G3">
-        <v>18.29657857411975</v>
+        <v>23.49262747816026</v>
       </c>
       <c r="H3">
-        <v>7.933421473416247</v>
+        <v>13.0285557931943</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.453725377986128</v>
+        <v>7.912191942436116</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.64745488930286</v>
+        <v>19.37077490633287</v>
       </c>
       <c r="N3">
-        <v>11.51887165970167</v>
+        <v>17.85857551848901</v>
       </c>
       <c r="O3">
-        <v>12.46312714199859</v>
+        <v>19.11632312633718</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.949104032658349</v>
+        <v>6.721759395356923</v>
       </c>
       <c r="C4">
-        <v>5.830988865956951</v>
+        <v>6.424922149331342</v>
       </c>
       <c r="D4">
-        <v>4.603652655550125</v>
+        <v>4.321872831477076</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.27292784316424</v>
+        <v>21.2499662873048</v>
       </c>
       <c r="G4">
-        <v>18.07373819838401</v>
+        <v>23.50866549928375</v>
       </c>
       <c r="H4">
-        <v>7.966326768223762</v>
+        <v>13.05306866727468</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.185042681238494</v>
+        <v>7.795945484374031</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.19371744052603</v>
+        <v>19.00070946132391</v>
       </c>
       <c r="N4">
-        <v>11.65820517764489</v>
+        <v>17.89781554289431</v>
       </c>
       <c r="O4">
-        <v>12.46137959616129</v>
+        <v>19.15272519175</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.77432275677479</v>
+        <v>6.652679993185086</v>
       </c>
       <c r="C5">
-        <v>5.815798035964974</v>
+        <v>6.418938624150393</v>
       </c>
       <c r="D5">
-        <v>4.54613970468502</v>
+        <v>4.298930389214157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.20015007350462</v>
+        <v>21.25628993332601</v>
       </c>
       <c r="G5">
-        <v>17.98739012534504</v>
+        <v>23.51707793819088</v>
       </c>
       <c r="H5">
-        <v>7.980796849710292</v>
+        <v>13.06352032926234</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.0727268201549</v>
+        <v>7.747711216393076</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.5874852973728</v>
+        <v>18.8497774233734</v>
       </c>
       <c r="N5">
-        <v>11.71545822080426</v>
+        <v>17.91422052383347</v>
       </c>
       <c r="O5">
-        <v>12.46312335272633</v>
+        <v>19.16850798973366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.744966574994201</v>
+        <v>6.641152044090738</v>
       </c>
       <c r="C6">
-        <v>5.813267232378859</v>
+        <v>6.417945247730482</v>
       </c>
       <c r="D6">
-        <v>4.536502563815545</v>
+        <v>4.295096637642075</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.18823126627074</v>
+        <v>21.25742189771304</v>
       </c>
       <c r="G6">
-        <v>17.9733204076663</v>
+        <v>23.51858801769017</v>
       </c>
       <c r="H6">
-        <v>7.98326272044297</v>
+        <v>13.06528375523451</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.053909418114452</v>
+        <v>7.739651010007511</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.4859655021952</v>
+        <v>18.82471526535531</v>
       </c>
       <c r="N6">
-        <v>11.72499547304306</v>
+        <v>17.91696963218736</v>
       </c>
       <c r="O6">
-        <v>12.46355846940148</v>
+        <v>19.17118595949545</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.946769294462463</v>
+        <v>6.720831686318503</v>
       </c>
       <c r="C7">
-        <v>5.830784580186775</v>
+        <v>6.424841442936696</v>
       </c>
       <c r="D7">
-        <v>4.602882891937093</v>
+        <v>4.3215650529054</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.27193522819145</v>
+        <v>21.25004607700539</v>
       </c>
       <c r="G7">
-        <v>18.07255566355193</v>
+        <v>23.50877136009456</v>
       </c>
       <c r="H7">
-        <v>7.966517664368979</v>
+        <v>13.05320774938853</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.183539247196791</v>
+        <v>7.795298421335915</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.18559849018827</v>
+        <v>18.99867410922743</v>
       </c>
       <c r="N7">
-        <v>11.65897531128271</v>
+        <v>17.89803510639278</v>
       </c>
       <c r="O7">
-        <v>12.46139329402005</v>
+        <v>19.15293420521297</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.78835568591108</v>
+        <v>7.063331547099059</v>
       </c>
       <c r="C8">
-        <v>5.906626053689506</v>
+        <v>6.455280116008454</v>
       </c>
       <c r="D8">
-        <v>4.882796172447655</v>
+        <v>4.434739303015622</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.66525624492461</v>
+        <v>21.22941464137032</v>
       </c>
       <c r="G8">
-        <v>18.54970466324133</v>
+        <v>23.48194164854124</v>
       </c>
       <c r="H8">
-        <v>7.902028301436621</v>
+        <v>13.00397872963487</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.730485915364946</v>
+        <v>8.033178933494771</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.15360112495266</v>
+        <v>19.76451236302207</v>
       </c>
       <c r="N8">
-        <v>11.37162032874407</v>
+        <v>17.81811447817203</v>
       </c>
       <c r="O8">
-        <v>12.47365235603926</v>
+        <v>19.08072599569626</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.25999841516387</v>
+        <v>7.695784997040795</v>
       </c>
       <c r="C9">
-        <v>6.047510251630692</v>
+        <v>6.514812007800325</v>
       </c>
       <c r="D9">
-        <v>5.38217419325326</v>
+        <v>4.64266025214767</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.52070411562251</v>
+        <v>21.23180843365896</v>
       </c>
       <c r="G9">
-        <v>19.62784922317165</v>
+        <v>23.48882917090387</v>
       </c>
       <c r="H9">
-        <v>7.811639785234743</v>
+        <v>12.9220240665207</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.70668901294328</v>
+        <v>8.469653738446377</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.60248982734931</v>
+        <v>21.24378072099007</v>
       </c>
       <c r="N9">
-        <v>10.81734349416817</v>
+        <v>17.67433712461317</v>
       </c>
       <c r="O9">
-        <v>12.58235516100032</v>
+        <v>18.96917967587667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.23038736470923</v>
+        <v>8.131753797379911</v>
       </c>
       <c r="C10">
-        <v>6.14333352567362</v>
+        <v>6.558289445493118</v>
       </c>
       <c r="D10">
-        <v>5.716787768012618</v>
+        <v>4.786079835568147</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.19867442449696</v>
+        <v>21.25965393718564</v>
       </c>
       <c r="G10">
-        <v>20.50772517058324</v>
+        <v>23.53026760833403</v>
       </c>
       <c r="H10">
-        <v>7.76942387258379</v>
+        <v>12.87069461178326</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.36029213337482</v>
+        <v>8.770121060221586</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.44918519929452</v>
+        <v>22.30394082352323</v>
       </c>
       <c r="N10">
-        <v>10.40967634811224</v>
+        <v>17.57648788830871</v>
       </c>
       <c r="O10">
-        <v>12.71956476478741</v>
+        <v>18.90563821706733</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.6474293046213</v>
+        <v>8.323031912628442</v>
       </c>
       <c r="C11">
-        <v>6.184443516858447</v>
+        <v>6.577976731937552</v>
       </c>
       <c r="D11">
-        <v>5.861611405823157</v>
+        <v>4.849145931960342</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.51754581138199</v>
+        <v>21.27796190959796</v>
       </c>
       <c r="G11">
-        <v>20.92738035758692</v>
+        <v>23.55701111048948</v>
       </c>
       <c r="H11">
-        <v>7.755963238256953</v>
+        <v>12.84927066808941</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.64284447515117</v>
+        <v>8.902066728993848</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.18599056909832</v>
+        <v>22.77805642583348</v>
       </c>
       <c r="N11">
-        <v>10.22234905993154</v>
+        <v>17.53364045523684</v>
       </c>
       <c r="O11">
-        <v>12.79567345565293</v>
+        <v>18.88074680310076</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.80181134353105</v>
+        <v>8.394393433019856</v>
       </c>
       <c r="C12">
-        <v>6.199566277001186</v>
+        <v>6.585415726605684</v>
       </c>
       <c r="D12">
-        <v>5.915356789173643</v>
+        <v>4.872702967067174</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.63978708018569</v>
+        <v>21.28570237110786</v>
       </c>
       <c r="G12">
-        <v>21.0891324776231</v>
+        <v>23.56827010075706</v>
       </c>
       <c r="H12">
-        <v>7.751733003223552</v>
+        <v>12.84143484372137</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.74762965481796</v>
+        <v>8.951323114491073</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.84412353215336</v>
+        <v>22.9562434125703</v>
       </c>
       <c r="N12">
-        <v>10.15094896987735</v>
+        <v>17.51765283712699</v>
       </c>
       <c r="O12">
-        <v>12.82656612463062</v>
+        <v>18.87189951241364</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.76872060711098</v>
+        <v>8.379072945656603</v>
       </c>
       <c r="C13">
-        <v>6.196330737204792</v>
+        <v>6.583814373700275</v>
       </c>
       <c r="D13">
-        <v>5.903831057858168</v>
+        <v>4.867644158998027</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.61339389723077</v>
+        <v>21.28399946962905</v>
       </c>
       <c r="G13">
-        <v>21.05416890472787</v>
+        <v>23.56579500499846</v>
       </c>
       <c r="H13">
-        <v>7.752604848438025</v>
+        <v>12.84311011110672</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.72516211681479</v>
+        <v>8.94074679309154</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.70231909073917</v>
+        <v>22.91793035089509</v>
       </c>
       <c r="N13">
-        <v>10.16635049368422</v>
+        <v>17.52108550719424</v>
       </c>
       <c r="O13">
-        <v>12.8198190051739</v>
+        <v>18.87377918347601</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.66020163458094</v>
+        <v>8.328924645000004</v>
       </c>
       <c r="C14">
-        <v>6.18569716999388</v>
+        <v>6.578589083974727</v>
       </c>
       <c r="D14">
-        <v>5.866055235362161</v>
+        <v>4.85109055591397</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.52757278675879</v>
+        <v>21.27858255906726</v>
       </c>
       <c r="G14">
-        <v>20.94063052715978</v>
+        <v>23.55791473488351</v>
       </c>
       <c r="H14">
-        <v>7.755597603615286</v>
+        <v>12.84862045952074</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.65151006020881</v>
+        <v>8.90613342993521</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.2401110711957</v>
+        <v>22.79274399254749</v>
       </c>
       <c r="N14">
-        <v>10.21648550589894</v>
+        <v>17.53232038811019</v>
       </c>
       <c r="O14">
-        <v>12.79817288608779</v>
+        <v>18.88000732891155</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.59326811070991</v>
+        <v>8.298066247719142</v>
       </c>
       <c r="C15">
-        <v>6.179122910190333</v>
+        <v>6.575386247626976</v>
       </c>
       <c r="D15">
-        <v>5.842772689956507</v>
+        <v>4.840908371737507</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.4751990647338</v>
+        <v>21.27536960336314</v>
       </c>
       <c r="G15">
-        <v>20.87145657730963</v>
+        <v>23.55323511636696</v>
       </c>
       <c r="H15">
-        <v>7.757544879121915</v>
+        <v>12.85203177479438</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.60610535784842</v>
+        <v>8.884838700518147</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.95713281873129</v>
+        <v>22.7158829177574</v>
       </c>
       <c r="N15">
-        <v>10.24712771719854</v>
+        <v>17.53923299472571</v>
       </c>
       <c r="O15">
-        <v>12.78518696096142</v>
+        <v>18.88389762981891</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.20263899280441</v>
+        <v>8.119106389584806</v>
       </c>
       <c r="C16">
-        <v>6.140589920253432</v>
+        <v>6.557000743107549</v>
       </c>
       <c r="D16">
-        <v>5.707171634642297</v>
+        <v>4.781913499455661</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.17804444735524</v>
+        <v>21.25857069516145</v>
       </c>
       <c r="G16">
-        <v>20.4806934550837</v>
+        <v>23.52867844525665</v>
       </c>
       <c r="H16">
-        <v>7.770422647832173</v>
+        <v>12.87213347380027</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.34152213457935</v>
+        <v>8.761400373275471</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.3356024115424</v>
+        <v>22.27277655812842</v>
       </c>
       <c r="N16">
-        <v>10.42186541052967</v>
+        <v>17.57932142935929</v>
       </c>
       <c r="O16">
-        <v>12.71487513785981</v>
+        <v>18.90734581803445</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.95672994229626</v>
+        <v>8.007471763998048</v>
       </c>
       <c r="C17">
-        <v>6.11625944798816</v>
+        <v>6.545696370465633</v>
       </c>
       <c r="D17">
-        <v>5.62206796217519</v>
+        <v>4.745156015363595</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.99841461985457</v>
+        <v>21.24970763594655</v>
       </c>
       <c r="G17">
-        <v>20.24596583448863</v>
+        <v>23.51563350037117</v>
       </c>
       <c r="H17">
-        <v>7.779823057875035</v>
+        <v>12.88495852477909</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.17536525924212</v>
+        <v>8.684441241340984</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.33896444335578</v>
+        <v>21.99872427048197</v>
       </c>
       <c r="N17">
-        <v>10.52845743170628</v>
+        <v>17.6043396089157</v>
       </c>
       <c r="O17">
-        <v>12.67532031394612</v>
+        <v>18.92275958169579</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.81299589051928</v>
+        <v>7.942602204492986</v>
       </c>
       <c r="C18">
-        <v>6.102037999001198</v>
+        <v>6.539186031420492</v>
       </c>
       <c r="D18">
-        <v>5.572424620640472</v>
+        <v>4.723809898810504</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.89608070702765</v>
+        <v>21.24514105198658</v>
       </c>
       <c r="G18">
-        <v>20.11277793928834</v>
+        <v>23.50887360076551</v>
       </c>
       <c r="H18">
-        <v>7.785768059035577</v>
+        <v>12.89251644777309</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.07841095536486</v>
+        <v>8.639731856220743</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.7643246879136</v>
+        <v>21.84033839096909</v>
       </c>
       <c r="N18">
-        <v>10.58960358065931</v>
+        <v>17.61888618730378</v>
       </c>
       <c r="O18">
-        <v>12.65385183436876</v>
+        <v>18.93200290631201</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.76393704310539</v>
+        <v>7.920526981444942</v>
       </c>
       <c r="C19">
-        <v>6.097186196038336</v>
+        <v>6.536980400363715</v>
       </c>
       <c r="D19">
-        <v>5.555498034695216</v>
+        <v>4.716547775264876</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.86160192374076</v>
+        <v>21.24368621534619</v>
       </c>
       <c r="G19">
-        <v>20.06799461005724</v>
+        <v>23.50671253421589</v>
       </c>
       <c r="H19">
-        <v>7.787872106572265</v>
+        <v>12.89510656809511</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.04534849462881</v>
+        <v>8.624518545448794</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.56945998731945</v>
+        <v>21.78658711626607</v>
       </c>
       <c r="N19">
-        <v>10.61028379460975</v>
+        <v>17.62383838523457</v>
       </c>
       <c r="O19">
-        <v>12.64680013405349</v>
+        <v>18.93519737041699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.98314500040001</v>
+        <v>8.019424241870386</v>
       </c>
       <c r="C20">
-        <v>6.118873555388255</v>
+        <v>6.546900628163413</v>
       </c>
       <c r="D20">
-        <v>5.631199449861667</v>
+        <v>4.749090132719902</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.01743478313292</v>
+        <v>21.25059616810337</v>
       </c>
       <c r="G20">
-        <v>20.2707642478</v>
+        <v>23.51694525624186</v>
       </c>
       <c r="H20">
-        <v>7.778766375331933</v>
+        <v>12.88357451315258</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.19319691420108</v>
+        <v>8.692679883645814</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.44518826752604</v>
+        <v>22.02797742129225</v>
       </c>
       <c r="N20">
-        <v>10.51712862238226</v>
+        <v>17.6016601661363</v>
       </c>
       <c r="O20">
-        <v>12.6793975303981</v>
+        <v>18.92107965589273</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.69217274932494</v>
+        <v>8.343683917875392</v>
       </c>
       <c r="C21">
-        <v>6.188833385639295</v>
+        <v>6.580124341292046</v>
       </c>
       <c r="D21">
-        <v>5.877180932051221</v>
+        <v>4.855961653111736</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.55274005450661</v>
+        <v>21.2801517503759</v>
       </c>
       <c r="G21">
-        <v>20.9739019255744</v>
+        <v>23.5601986771475</v>
       </c>
       <c r="H21">
-        <v>7.754694702232253</v>
+        <v>12.84699442015161</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.67320420271055</v>
+        <v>8.916319649532674</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.37583901464072</v>
+        <v>22.82955223452921</v>
       </c>
       <c r="N21">
-        <v>10.20177400555213</v>
+        <v>17.52901399089791</v>
       </c>
       <c r="O21">
-        <v>12.80447380475332</v>
+        <v>18.87816225984297</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.13489133058546</v>
+        <v>8.549339993574389</v>
       </c>
       <c r="C22">
-        <v>6.231905708874669</v>
+        <v>6.601742368192726</v>
       </c>
       <c r="D22">
-        <v>6.031537489150669</v>
+        <v>4.923910745903346</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.91129600059136</v>
+        <v>21.3041732965285</v>
       </c>
       <c r="G22">
-        <v>21.45003443923799</v>
+        <v>23.59506179088318</v>
       </c>
       <c r="H22">
-        <v>7.744034732761546</v>
+        <v>12.82470153147179</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.97397953180258</v>
+        <v>9.058340041923961</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.29536681131916</v>
+        <v>23.34548705790626</v>
       </c>
       <c r="N22">
-        <v>9.992840648402591</v>
+        <v>17.48292070309914</v>
       </c>
       <c r="O22">
-        <v>12.89834611048133</v>
+        <v>18.85348601813035</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.90050928313459</v>
+        <v>8.440168104581877</v>
       </c>
       <c r="C23">
-        <v>6.209194955150454</v>
+        <v>6.590214189251991</v>
       </c>
       <c r="D23">
-        <v>5.949752186828053</v>
+        <v>4.887822343432078</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.71913061321087</v>
+        <v>21.2909233918848</v>
       </c>
       <c r="G23">
-        <v>21.19436963688008</v>
+        <v>23.5758527322302</v>
       </c>
       <c r="H23">
-        <v>7.74924659867736</v>
+        <v>12.83645195987818</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.81466518251032</v>
+        <v>8.982928389563821</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.26954605241922</v>
+        <v>23.07090361840551</v>
       </c>
       <c r="N23">
-        <v>10.10468949098198</v>
+        <v>17.50739534420038</v>
       </c>
       <c r="O23">
-        <v>12.84709992990437</v>
+        <v>18.86634717043238</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.97121009369811</v>
+        <v>8.014022669232594</v>
       </c>
       <c r="C24">
-        <v>6.117692438510946</v>
+        <v>6.546356218235681</v>
       </c>
       <c r="D24">
-        <v>5.627073332333612</v>
+        <v>4.747312183140437</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.00883284546153</v>
+        <v>21.25019281503115</v>
       </c>
       <c r="G24">
-        <v>20.25954740584769</v>
+        <v>23.51634990683644</v>
       </c>
       <c r="H24">
-        <v>7.77924242084464</v>
+        <v>12.88419964972596</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.18513966606292</v>
+        <v>8.688956638356927</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.39716981113155</v>
+        <v>22.01475464208092</v>
       </c>
       <c r="N24">
-        <v>10.52225078376712</v>
+        <v>17.60287103347229</v>
       </c>
       <c r="O24">
-        <v>12.67755026623913</v>
+        <v>18.9218379613968</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.88122338632985</v>
+        <v>7.52941910521598</v>
       </c>
       <c r="C25">
-        <v>6.010509471828339</v>
+        <v>6.498740886555765</v>
       </c>
       <c r="D25">
-        <v>5.252609938618803</v>
+        <v>4.587998055298962</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.28046735334537</v>
+        <v>21.22657391717259</v>
       </c>
       <c r="G25">
-        <v>19.32083628399566</v>
+        <v>23.48057951740819</v>
       </c>
       <c r="H25">
-        <v>7.832007180886793</v>
+        <v>12.94263452596094</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.45343919683515</v>
+        <v>8.354995896025075</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.16181149786589</v>
+        <v>20.84741108593384</v>
       </c>
       <c r="N25">
-        <v>10.96686049272563</v>
+        <v>17.71185789988022</v>
       </c>
       <c r="O25">
-        <v>12.54329223526179</v>
+        <v>18.99612874715582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.15368166566049</v>
+        <v>11.00437208158398</v>
       </c>
       <c r="C2">
-        <v>6.463522822095095</v>
+        <v>5.926737903354675</v>
       </c>
       <c r="D2">
-        <v>4.464487150825882</v>
+        <v>4.955372698142256</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.22672403823336</v>
+        <v>15.77758872786179</v>
       </c>
       <c r="G2">
-        <v>23.47869156624686</v>
+        <v>18.6885891100766</v>
       </c>
       <c r="H2">
-        <v>12.99162733252838</v>
+        <v>7.886917126916251</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.095678867533417</v>
+        <v>9.872355416466284</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97100899796924</v>
+        <v>29.93051281205097</v>
       </c>
       <c r="N2">
-        <v>17.79734019690946</v>
+        <v>11.29457405001906</v>
       </c>
       <c r="O2">
-        <v>19.06319147766586</v>
+        <v>12.48249013047194</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.888810264094829</v>
+        <v>10.36437033184875</v>
       </c>
       <c r="C3">
-        <v>6.439609489212041</v>
+        <v>5.867885285723341</v>
       </c>
       <c r="D3">
-        <v>4.37717067640287</v>
+        <v>4.741184842483322</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.23777867201598</v>
+        <v>15.45823479460867</v>
       </c>
       <c r="G3">
-        <v>23.49262747816026</v>
+        <v>18.29657857411972</v>
       </c>
       <c r="H3">
-        <v>13.0285557931943</v>
+        <v>7.933421473416241</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.912191942436116</v>
+        <v>9.453725377986173</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37077490633287</v>
+        <v>27.64745488930278</v>
       </c>
       <c r="N3">
-        <v>17.85857551848901</v>
+        <v>11.51887165970167</v>
       </c>
       <c r="O3">
-        <v>19.11632312633718</v>
+        <v>12.46312714199854</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.721759395356923</v>
+        <v>9.949104032658349</v>
       </c>
       <c r="C4">
-        <v>6.424922149331342</v>
+        <v>5.830988865957072</v>
       </c>
       <c r="D4">
-        <v>4.321872831477076</v>
+        <v>4.603652655550237</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.2499662873048</v>
+        <v>15.27292784316421</v>
       </c>
       <c r="G4">
-        <v>23.50866549928375</v>
+        <v>18.07373819838395</v>
       </c>
       <c r="H4">
-        <v>13.05306866727468</v>
+        <v>7.966326768223821</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.795945484374031</v>
+        <v>9.185042681238549</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.00070946132391</v>
+        <v>26.19371744052607</v>
       </c>
       <c r="N4">
-        <v>17.89781554289431</v>
+        <v>11.65820517764493</v>
       </c>
       <c r="O4">
-        <v>19.15272519175</v>
+        <v>12.46137959616129</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.652679993185086</v>
+        <v>9.774322756774776</v>
       </c>
       <c r="C5">
-        <v>6.418938624150393</v>
+        <v>5.815798035964725</v>
       </c>
       <c r="D5">
-        <v>4.298930389214157</v>
+        <v>4.546139704685126</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.25628993332601</v>
+        <v>15.20015007350467</v>
       </c>
       <c r="G5">
-        <v>23.51707793819088</v>
+        <v>17.9873901253452</v>
       </c>
       <c r="H5">
-        <v>13.06352032926234</v>
+        <v>7.980796849710299</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.747711216393076</v>
+        <v>9.072726820154863</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.8497774233734</v>
+        <v>25.58748529737269</v>
       </c>
       <c r="N5">
-        <v>17.91422052383347</v>
+        <v>11.71545822080433</v>
       </c>
       <c r="O5">
-        <v>19.16850798973366</v>
+        <v>12.46312335272641</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.641152044090738</v>
+        <v>9.744966574994168</v>
       </c>
       <c r="C6">
-        <v>6.417945247730482</v>
+        <v>5.813267232378988</v>
       </c>
       <c r="D6">
-        <v>4.295096637642075</v>
+        <v>4.536502563815537</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.25742189771304</v>
+        <v>15.18823126627083</v>
       </c>
       <c r="G6">
-        <v>23.51858801769017</v>
+        <v>17.97332040766646</v>
       </c>
       <c r="H6">
-        <v>13.06528375523451</v>
+        <v>7.983262720443034</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.739651010007511</v>
+        <v>9.053909418114419</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.82471526535531</v>
+        <v>25.48596550219517</v>
       </c>
       <c r="N6">
-        <v>17.91696963218736</v>
+        <v>11.72499547304309</v>
       </c>
       <c r="O6">
-        <v>19.17118595949545</v>
+        <v>12.46355846940156</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.720831686318503</v>
+        <v>9.946769294462385</v>
       </c>
       <c r="C7">
-        <v>6.424841442936696</v>
+        <v>5.830784580186791</v>
       </c>
       <c r="D7">
-        <v>4.3215650529054</v>
+        <v>4.602882891937198</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.25004607700539</v>
+        <v>15.27193522819143</v>
       </c>
       <c r="G7">
-        <v>23.50877136009456</v>
+        <v>18.07255566355188</v>
       </c>
       <c r="H7">
-        <v>13.05320774938853</v>
+        <v>7.966517664369098</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.795298421335915</v>
+        <v>9.183539247196766</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.99867410922743</v>
+        <v>26.18559849018808</v>
       </c>
       <c r="N7">
-        <v>17.89803510639278</v>
+        <v>11.65897531128271</v>
       </c>
       <c r="O7">
-        <v>19.15293420521297</v>
+        <v>12.46139329402009</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.063331547099059</v>
+        <v>10.78835568591105</v>
       </c>
       <c r="C8">
-        <v>6.455280116008454</v>
+        <v>5.906626053689616</v>
       </c>
       <c r="D8">
-        <v>4.434739303015622</v>
+        <v>4.882796172447649</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.22941464137032</v>
+        <v>15.66525624492465</v>
       </c>
       <c r="G8">
-        <v>23.48194164854124</v>
+        <v>18.54970466324141</v>
       </c>
       <c r="H8">
-        <v>13.00397872963487</v>
+        <v>7.902028301436616</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.033178933494771</v>
+        <v>9.730485915364945</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76451236302207</v>
+        <v>29.15360112495262</v>
       </c>
       <c r="N8">
-        <v>17.81811447817203</v>
+        <v>11.37162032874413</v>
       </c>
       <c r="O8">
-        <v>19.08072599569626</v>
+        <v>12.47365235603928</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.695784997040795</v>
+        <v>12.25999841516385</v>
       </c>
       <c r="C9">
-        <v>6.514812007800325</v>
+        <v>6.04751025163071</v>
       </c>
       <c r="D9">
-        <v>4.64266025214767</v>
+        <v>5.382174193253285</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.23180843365896</v>
+        <v>16.52070411562249</v>
       </c>
       <c r="G9">
-        <v>23.48882917090387</v>
+        <v>19.62784922317165</v>
       </c>
       <c r="H9">
-        <v>12.9220240665207</v>
+        <v>7.811639785234694</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.469653738446377</v>
+        <v>10.70668901294329</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.24378072099007</v>
+        <v>34.60248982734927</v>
       </c>
       <c r="N9">
-        <v>17.67433712461317</v>
+        <v>10.8173434941681</v>
       </c>
       <c r="O9">
-        <v>18.96917967587667</v>
+        <v>12.58235516100027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.131753797379911</v>
+        <v>13.23038736470923</v>
       </c>
       <c r="C10">
-        <v>6.558289445493118</v>
+        <v>6.143333525673492</v>
       </c>
       <c r="D10">
-        <v>4.786079835568147</v>
+        <v>5.716787768012666</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.25965393718564</v>
+        <v>17.1986744244969</v>
       </c>
       <c r="G10">
-        <v>23.53026760833403</v>
+        <v>20.50772517058316</v>
       </c>
       <c r="H10">
-        <v>12.87069461178326</v>
+        <v>7.769423872583737</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.770121060221586</v>
+        <v>11.36029213337479</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.30394082352323</v>
+        <v>38.44918519929455</v>
       </c>
       <c r="N10">
-        <v>17.57648788830871</v>
+        <v>10.40967634811214</v>
       </c>
       <c r="O10">
-        <v>18.90563821706733</v>
+        <v>12.71956476478733</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.323031912628442</v>
+        <v>13.64742930462134</v>
       </c>
       <c r="C11">
-        <v>6.577976731937552</v>
+        <v>6.184443516858318</v>
       </c>
       <c r="D11">
-        <v>4.849145931960342</v>
+        <v>5.861611405823356</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.27796190959796</v>
+        <v>17.51754581138195</v>
       </c>
       <c r="G11">
-        <v>23.55701111048948</v>
+        <v>20.92738035758692</v>
       </c>
       <c r="H11">
-        <v>12.84927066808941</v>
+        <v>7.755963238256953</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.902066728993848</v>
+        <v>11.64284447515116</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.77805642583348</v>
+        <v>40.18599056909834</v>
       </c>
       <c r="N11">
-        <v>17.53364045523684</v>
+        <v>10.22234905993158</v>
       </c>
       <c r="O11">
-        <v>18.88074680310076</v>
+        <v>12.79567345565297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.394393433019856</v>
+        <v>13.80181134353108</v>
       </c>
       <c r="C12">
-        <v>6.585415726605684</v>
+        <v>6.199566277001186</v>
       </c>
       <c r="D12">
-        <v>4.872702967067174</v>
+        <v>5.915356789173637</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.28570237110786</v>
+        <v>17.63978708018569</v>
       </c>
       <c r="G12">
-        <v>23.56827010075706</v>
+        <v>21.08913247762305</v>
       </c>
       <c r="H12">
-        <v>12.84143484372137</v>
+        <v>7.751733003223557</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.951323114491073</v>
+        <v>11.74762965481797</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.9562434125703</v>
+        <v>40.84412353215329</v>
       </c>
       <c r="N12">
-        <v>17.51765283712699</v>
+        <v>10.15094896987731</v>
       </c>
       <c r="O12">
-        <v>18.87189951241364</v>
+        <v>12.82656612463059</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.379072945656603</v>
+        <v>13.76872060711093</v>
       </c>
       <c r="C13">
-        <v>6.583814373700275</v>
+        <v>6.196330737204909</v>
       </c>
       <c r="D13">
-        <v>4.867644158998027</v>
+        <v>5.903831057857997</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.28399946962905</v>
+        <v>17.61339389723079</v>
       </c>
       <c r="G13">
-        <v>23.56579500499846</v>
+        <v>21.05416890472784</v>
       </c>
       <c r="H13">
-        <v>12.84311011110672</v>
+        <v>7.752604848438025</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.94074679309154</v>
+        <v>11.72516211681478</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.91793035089509</v>
+        <v>40.70231909073919</v>
       </c>
       <c r="N13">
-        <v>17.52108550719424</v>
+        <v>10.16635049368422</v>
       </c>
       <c r="O13">
-        <v>18.87377918347601</v>
+        <v>12.81981900517389</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.328924645000004</v>
+        <v>13.66020163458093</v>
       </c>
       <c r="C14">
-        <v>6.578589083974727</v>
+        <v>6.185697169993889</v>
       </c>
       <c r="D14">
-        <v>4.85109055591397</v>
+        <v>5.866055235362194</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.27858255906726</v>
+        <v>17.52757278675876</v>
       </c>
       <c r="G14">
-        <v>23.55791473488351</v>
+        <v>20.94063052715974</v>
       </c>
       <c r="H14">
-        <v>12.84862045952074</v>
+        <v>7.75559760361529</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.90613342993521</v>
+        <v>11.65151006020879</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.79274399254749</v>
+        <v>40.24011107119573</v>
       </c>
       <c r="N14">
-        <v>17.53232038811019</v>
+        <v>10.21648550589891</v>
       </c>
       <c r="O14">
-        <v>18.88000732891155</v>
+        <v>12.79817288608779</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.298066247719142</v>
+        <v>13.59326811070989</v>
       </c>
       <c r="C15">
-        <v>6.575386247626976</v>
+        <v>6.179122910190237</v>
       </c>
       <c r="D15">
-        <v>4.840908371737507</v>
+        <v>5.84277268995656</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.27536960336314</v>
+        <v>17.47519906473376</v>
       </c>
       <c r="G15">
-        <v>23.55323511636696</v>
+        <v>20.87145657730959</v>
       </c>
       <c r="H15">
-        <v>12.85203177479438</v>
+        <v>7.757544879121911</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.884838700518147</v>
+        <v>11.6061053578484</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.7158829177574</v>
+        <v>39.95713281873117</v>
       </c>
       <c r="N15">
-        <v>17.53923299472571</v>
+        <v>10.24712771719848</v>
       </c>
       <c r="O15">
-        <v>18.88389762981891</v>
+        <v>12.7851869609614</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.119106389584806</v>
+        <v>13.20263899280444</v>
       </c>
       <c r="C16">
-        <v>6.557000743107549</v>
+        <v>6.140589920253432</v>
       </c>
       <c r="D16">
-        <v>4.781913499455661</v>
+        <v>5.707171634642303</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.25857069516145</v>
+        <v>17.17804444735525</v>
       </c>
       <c r="G16">
-        <v>23.52867844525665</v>
+        <v>20.4806934550837</v>
       </c>
       <c r="H16">
-        <v>12.87213347380027</v>
+        <v>7.770422647832173</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.761400373275471</v>
+        <v>11.34152213457939</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.27277655812842</v>
+        <v>38.33560241154231</v>
       </c>
       <c r="N16">
-        <v>17.57932142935929</v>
+        <v>10.4218654105297</v>
       </c>
       <c r="O16">
-        <v>18.90734581803445</v>
+        <v>12.71487513785981</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.007471763998048</v>
+        <v>12.95672994229623</v>
       </c>
       <c r="C17">
-        <v>6.545696370465633</v>
+        <v>6.116259447988379</v>
       </c>
       <c r="D17">
-        <v>4.745156015363595</v>
+        <v>5.622067962175256</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.24970763594655</v>
+        <v>16.99841461985458</v>
       </c>
       <c r="G17">
-        <v>23.51563350037117</v>
+        <v>20.24596583448865</v>
       </c>
       <c r="H17">
-        <v>12.88495852477909</v>
+        <v>7.779823057875089</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.684441241340984</v>
+        <v>11.17536525924213</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.99872427048197</v>
+        <v>37.33896444335576</v>
       </c>
       <c r="N17">
-        <v>17.6043396089157</v>
+        <v>10.52845743170634</v>
       </c>
       <c r="O17">
-        <v>18.92275958169579</v>
+        <v>12.67532031394614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.942602204492986</v>
+        <v>12.81299589051936</v>
       </c>
       <c r="C18">
-        <v>6.539186031420492</v>
+        <v>6.102037999001086</v>
       </c>
       <c r="D18">
-        <v>4.723809898810504</v>
+        <v>5.572424620640478</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.24514105198658</v>
+        <v>16.8960807070276</v>
       </c>
       <c r="G18">
-        <v>23.50887360076551</v>
+        <v>20.11277793928836</v>
       </c>
       <c r="H18">
-        <v>12.89251644777309</v>
+        <v>7.785768059035425</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.639731856220743</v>
+        <v>11.07841095536483</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.84033839096909</v>
+        <v>36.76432468791358</v>
       </c>
       <c r="N18">
-        <v>17.61888618730378</v>
+        <v>10.58960358065924</v>
       </c>
       <c r="O18">
-        <v>18.93200290631201</v>
+        <v>12.65385183436869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.920526981444942</v>
+        <v>12.76393704310533</v>
       </c>
       <c r="C19">
-        <v>6.536980400363715</v>
+        <v>6.097186196038577</v>
       </c>
       <c r="D19">
-        <v>4.716547775264876</v>
+        <v>5.55549803469525</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.24368621534619</v>
+        <v>16.86160192374072</v>
       </c>
       <c r="G19">
-        <v>23.50671253421589</v>
+        <v>20.06799461005711</v>
       </c>
       <c r="H19">
-        <v>12.89510656809511</v>
+        <v>7.787872106572272</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.624518545448794</v>
+        <v>11.0453484946288</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.78658711626607</v>
+        <v>36.56945998731937</v>
       </c>
       <c r="N19">
-        <v>17.62383838523457</v>
+        <v>10.61028379460969</v>
       </c>
       <c r="O19">
-        <v>18.93519737041699</v>
+        <v>12.64680013405347</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.019424241870386</v>
+        <v>12.98314500040009</v>
       </c>
       <c r="C20">
-        <v>6.546900628163413</v>
+        <v>6.118873555388135</v>
       </c>
       <c r="D20">
-        <v>4.749090132719902</v>
+        <v>5.631199449861718</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.25059616810337</v>
+        <v>17.01743478313281</v>
       </c>
       <c r="G20">
-        <v>23.51694525624186</v>
+        <v>20.2707642477999</v>
       </c>
       <c r="H20">
-        <v>12.88357451315258</v>
+        <v>7.77876637533188</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.692679883645814</v>
+        <v>11.19319691420113</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.02797742129225</v>
+        <v>37.44518826752596</v>
       </c>
       <c r="N20">
-        <v>17.6016601661363</v>
+        <v>10.51712862238216</v>
       </c>
       <c r="O20">
-        <v>18.92107965589273</v>
+        <v>12.679397530398</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.343683917875392</v>
+        <v>13.69217274932491</v>
       </c>
       <c r="C21">
-        <v>6.580124341292046</v>
+        <v>6.188833385639276</v>
       </c>
       <c r="D21">
-        <v>4.855961653111736</v>
+        <v>5.877180932051227</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.2801517503759</v>
+        <v>17.55274005450659</v>
       </c>
       <c r="G21">
-        <v>23.5601986771475</v>
+        <v>20.9739019255744</v>
       </c>
       <c r="H21">
-        <v>12.84699442015161</v>
+        <v>7.754694702232201</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.916319649532674</v>
+        <v>11.67320420271052</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.82955223452921</v>
+        <v>40.37583901464076</v>
       </c>
       <c r="N21">
-        <v>17.52901399089791</v>
+        <v>10.20177400555206</v>
       </c>
       <c r="O21">
-        <v>18.87816225984297</v>
+        <v>12.80447380475329</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.549339993574389</v>
+        <v>14.13489133058551</v>
       </c>
       <c r="C22">
-        <v>6.601742368192726</v>
+        <v>6.231905708874671</v>
       </c>
       <c r="D22">
-        <v>4.923910745903346</v>
+        <v>6.03153748915074</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.3041732965285</v>
+        <v>17.91129600059127</v>
       </c>
       <c r="G22">
-        <v>23.59506179088318</v>
+        <v>21.45003443923798</v>
       </c>
       <c r="H22">
-        <v>12.82470153147179</v>
+        <v>7.744034732761404</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.058340041923961</v>
+        <v>11.97397953180259</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.34548705790626</v>
+        <v>42.29536681131916</v>
       </c>
       <c r="N22">
-        <v>17.48292070309914</v>
+        <v>9.992840648402524</v>
       </c>
       <c r="O22">
-        <v>18.85348601813035</v>
+        <v>12.89834611048125</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.440168104581877</v>
+        <v>13.90050928313461</v>
       </c>
       <c r="C23">
-        <v>6.590214189251991</v>
+        <v>6.209194955150104</v>
       </c>
       <c r="D23">
-        <v>4.887822343432078</v>
+        <v>5.949752186828236</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.2909233918848</v>
+        <v>17.71913061321084</v>
       </c>
       <c r="G23">
-        <v>23.5758527322302</v>
+        <v>21.19436963688018</v>
       </c>
       <c r="H23">
-        <v>12.83645195987818</v>
+        <v>7.749246598677317</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.982928389563821</v>
+        <v>11.81466518251029</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.07090361840551</v>
+        <v>41.26954605241934</v>
       </c>
       <c r="N23">
-        <v>17.50739534420038</v>
+        <v>10.10468949098195</v>
       </c>
       <c r="O23">
-        <v>18.86634717043238</v>
+        <v>12.84709992990438</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.014022669232594</v>
+        <v>12.9712100936981</v>
       </c>
       <c r="C24">
-        <v>6.546356218235681</v>
+        <v>6.117692438510955</v>
       </c>
       <c r="D24">
-        <v>4.747312183140437</v>
+        <v>5.627073332333686</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.25019281503115</v>
+        <v>17.00883284546152</v>
       </c>
       <c r="G24">
-        <v>23.51634990683644</v>
+        <v>20.25954740584778</v>
       </c>
       <c r="H24">
-        <v>12.88419964972596</v>
+        <v>7.779242420844647</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.688956638356927</v>
+        <v>11.18513966606292</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.01475464208092</v>
+        <v>37.39716981113147</v>
       </c>
       <c r="N24">
-        <v>17.60287103347229</v>
+        <v>10.52225078376715</v>
       </c>
       <c r="O24">
-        <v>18.9218379613968</v>
+        <v>12.67755026623916</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.52941910521598</v>
+        <v>11.88122338632989</v>
       </c>
       <c r="C25">
-        <v>6.498740886555765</v>
+        <v>6.010509471828575</v>
       </c>
       <c r="D25">
-        <v>4.587998055298962</v>
+        <v>5.252609938618937</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.22657391717259</v>
+        <v>16.28046735334526</v>
       </c>
       <c r="G25">
-        <v>23.48057951740819</v>
+        <v>19.3208362839956</v>
       </c>
       <c r="H25">
-        <v>12.94263452596094</v>
+        <v>7.832007180886738</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.354995896025075</v>
+        <v>10.45343919683522</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84741108593384</v>
+        <v>33.16181149786582</v>
       </c>
       <c r="N25">
-        <v>17.71185789988022</v>
+        <v>10.96686049272563</v>
       </c>
       <c r="O25">
-        <v>18.99612874715582</v>
+        <v>12.54329223526168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.00437208158398</v>
+        <v>21.0083726835429</v>
       </c>
       <c r="C2">
-        <v>5.926737903354675</v>
+        <v>14.02495736736507</v>
       </c>
       <c r="D2">
-        <v>4.955372698142256</v>
+        <v>4.158036584016127</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.77758872786179</v>
+        <v>27.63779834082585</v>
       </c>
       <c r="G2">
-        <v>18.6885891100766</v>
+        <v>35.85903124527199</v>
       </c>
       <c r="H2">
-        <v>7.886917126916251</v>
+        <v>3.159884058991758</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.598643771700814</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.94334131978852</v>
       </c>
       <c r="K2">
-        <v>9.872355416466284</v>
+        <v>18.62877735141857</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.367686242798147</v>
       </c>
       <c r="M2">
-        <v>29.93051281205097</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.29457405001906</v>
+        <v>7.148942299149352</v>
       </c>
       <c r="O2">
-        <v>12.48249013047194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.19406323208868</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.36437033184875</v>
+        <v>19.64852547026535</v>
       </c>
       <c r="C3">
-        <v>5.867885285723341</v>
+        <v>13.18646449231205</v>
       </c>
       <c r="D3">
-        <v>4.741184842483322</v>
+        <v>4.088094546192686</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.45823479460867</v>
+        <v>27.1151432022311</v>
       </c>
       <c r="G3">
-        <v>18.29657857411972</v>
+        <v>34.88799235175033</v>
       </c>
       <c r="H3">
-        <v>7.933421473416241</v>
+        <v>3.408386694256864</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.808001537112622</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.85716908765709</v>
       </c>
       <c r="K3">
-        <v>9.453725377986173</v>
+        <v>18.60634021117851</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.300921557148762</v>
       </c>
       <c r="M3">
-        <v>27.64745488930278</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.51887165970167</v>
+        <v>6.961810204077397</v>
       </c>
       <c r="O3">
-        <v>12.46312714199854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.55783859780157</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.949104032658349</v>
+        <v>18.76498283677254</v>
       </c>
       <c r="C4">
-        <v>5.830988865957072</v>
+        <v>12.64761637428581</v>
       </c>
       <c r="D4">
-        <v>4.603652655550237</v>
+        <v>4.045034220594371</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.27292784316421</v>
+        <v>26.79756157719161</v>
       </c>
       <c r="G4">
-        <v>18.07373819838395</v>
+        <v>34.29106782862645</v>
       </c>
       <c r="H4">
-        <v>7.966326768223821</v>
+        <v>3.566086016956839</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.941455061974696</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.80750693953984</v>
       </c>
       <c r="K4">
-        <v>9.185042681238549</v>
+        <v>18.59684644680971</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.258452633945994</v>
       </c>
       <c r="M4">
-        <v>26.19371744052607</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.65820517764493</v>
+        <v>6.84502175347914</v>
       </c>
       <c r="O4">
-        <v>12.46137959616129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.15189741225746</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.774322756774776</v>
+        <v>18.39247558583267</v>
       </c>
       <c r="C5">
-        <v>5.815798035964725</v>
+        <v>12.43064977854809</v>
       </c>
       <c r="D5">
-        <v>4.546139704685126</v>
+        <v>4.028417841564001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.20015007350467</v>
+        <v>26.65391714683906</v>
       </c>
       <c r="G5">
-        <v>17.9873901253452</v>
+        <v>34.02061016078751</v>
       </c>
       <c r="H5">
-        <v>7.980796849710299</v>
+        <v>3.632040436540767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.999618610788001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.78296931940254</v>
       </c>
       <c r="K5">
-        <v>9.072726820154863</v>
+        <v>18.58357455846474</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.240457073175237</v>
       </c>
       <c r="M5">
-        <v>25.58748529737269</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.71545822080433</v>
+        <v>6.79833828251188</v>
       </c>
       <c r="O5">
-        <v>12.46312335272641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.98400277290442</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.744966574994168</v>
+        <v>18.32957096918625</v>
       </c>
       <c r="C6">
-        <v>5.813267232378988</v>
+        <v>12.40481687340951</v>
       </c>
       <c r="D6">
-        <v>4.536502563815537</v>
+        <v>4.026837477681372</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.18823126627083</v>
+        <v>26.61158440999584</v>
       </c>
       <c r="G6">
-        <v>17.97332040766646</v>
+        <v>33.94233567047135</v>
       </c>
       <c r="H6">
-        <v>7.983262720443034</v>
+        <v>3.643534541512631</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.012583830231004</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.77270445446085</v>
       </c>
       <c r="K6">
-        <v>9.053909418114419</v>
+        <v>18.56868177776558</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.237069656240223</v>
       </c>
       <c r="M6">
-        <v>25.48596550219517</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.72499547304309</v>
+        <v>6.792208797462537</v>
       </c>
       <c r="O6">
-        <v>12.46355846940156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.95739381265378</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.946769294462385</v>
+        <v>18.75914836296986</v>
       </c>
       <c r="C7">
-        <v>5.830784580186791</v>
+        <v>12.67293754941716</v>
       </c>
       <c r="D7">
-        <v>4.602882891937198</v>
+        <v>4.048004337578194</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.27193522819143</v>
+        <v>26.74533283561449</v>
       </c>
       <c r="G7">
-        <v>18.07255566355188</v>
+        <v>34.19709604532221</v>
       </c>
       <c r="H7">
-        <v>7.966517664369098</v>
+        <v>3.568211918970343</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.95080705241577</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.79019696046221</v>
       </c>
       <c r="K7">
-        <v>9.183539247196766</v>
+        <v>18.56190075067729</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.257213345727589</v>
       </c>
       <c r="M7">
-        <v>26.18559849018808</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.65897531128271</v>
+        <v>6.84885474154702</v>
       </c>
       <c r="O7">
-        <v>12.46139329402009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.15362495154283</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.78835568591105</v>
+        <v>20.54844587403776</v>
       </c>
       <c r="C8">
-        <v>5.906626053689616</v>
+        <v>13.77562471996858</v>
       </c>
       <c r="D8">
-        <v>4.882796172447649</v>
+        <v>4.138046202756009</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.66525624492465</v>
+        <v>27.39212531619522</v>
       </c>
       <c r="G8">
-        <v>18.54970466324141</v>
+        <v>35.40907602836916</v>
       </c>
       <c r="H8">
-        <v>7.902028301436616</v>
+        <v>3.246070330378792</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.680815292743188</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.89080264060823</v>
       </c>
       <c r="K8">
-        <v>9.730485915364945</v>
+        <v>18.57449328325326</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.343773298234801</v>
       </c>
       <c r="M8">
-        <v>29.15360112495262</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.37162032874413</v>
+        <v>7.090564366292219</v>
       </c>
       <c r="O8">
-        <v>12.47365235603928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.98285245160066</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.25999841516385</v>
+        <v>23.70271359031511</v>
       </c>
       <c r="C9">
-        <v>6.04751025163071</v>
+        <v>15.70139411199701</v>
       </c>
       <c r="D9">
-        <v>5.382174193253285</v>
+        <v>4.308376801194702</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.52070411562249</v>
+        <v>28.76969580291051</v>
       </c>
       <c r="G9">
-        <v>19.62784922317165</v>
+        <v>37.92359271845206</v>
       </c>
       <c r="H9">
-        <v>7.811639785234694</v>
+        <v>2.651754334399008</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.175342889359852</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.14430417037577</v>
       </c>
       <c r="K9">
-        <v>10.70668901294329</v>
+        <v>18.69680886230802</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.503762016167516</v>
       </c>
       <c r="M9">
-        <v>34.60248982734927</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.8173434941681</v>
+        <v>7.54035897529884</v>
       </c>
       <c r="O9">
-        <v>12.58235516100027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.47548648804971</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.23038736470923</v>
+        <v>25.82254083572267</v>
       </c>
       <c r="C10">
-        <v>6.143333525673492</v>
+        <v>17.06170511714139</v>
       </c>
       <c r="D10">
-        <v>5.716787768012666</v>
+        <v>4.423867293027585</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.1986744244969</v>
+        <v>29.52535429932161</v>
       </c>
       <c r="G10">
-        <v>20.50772517058316</v>
+        <v>39.33996191466946</v>
       </c>
       <c r="H10">
-        <v>7.769423872583737</v>
+        <v>2.26682387539194</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.837904695661424</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.26490746947137</v>
       </c>
       <c r="K10">
-        <v>11.36029213337479</v>
+        <v>18.65035437955084</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.617147640582115</v>
       </c>
       <c r="M10">
-        <v>38.44918519929455</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.40967634811214</v>
+        <v>7.789167049469328</v>
       </c>
       <c r="O10">
-        <v>12.71956476478733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.44100007765893</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.64742930462134</v>
+        <v>26.82858257830052</v>
       </c>
       <c r="C11">
-        <v>6.184443516858318</v>
+        <v>18.12613494707787</v>
       </c>
       <c r="D11">
-        <v>5.861611405823356</v>
+        <v>4.389981011814505</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.51754581138195</v>
+        <v>27.7163641960568</v>
       </c>
       <c r="G11">
-        <v>20.92738035758692</v>
+        <v>36.68690316897694</v>
       </c>
       <c r="H11">
-        <v>7.755963238256953</v>
+        <v>3.086113622336418</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.755062440300781</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.65617850395101</v>
       </c>
       <c r="K11">
-        <v>11.64284447515116</v>
+        <v>17.35739111815192</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.7542059694863</v>
       </c>
       <c r="M11">
-        <v>40.18599056909834</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.22234905993158</v>
+        <v>7.302891082893933</v>
       </c>
       <c r="O11">
-        <v>12.79567345565297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.43998243527852</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.80181134353108</v>
+        <v>27.25133744730859</v>
       </c>
       <c r="C12">
-        <v>6.199566277001186</v>
+        <v>18.72278105812464</v>
       </c>
       <c r="D12">
-        <v>5.915356789173637</v>
+        <v>4.337379515567815</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.63978708018569</v>
+        <v>26.0861613623962</v>
       </c>
       <c r="G12">
-        <v>21.08913247762305</v>
+        <v>34.23694737609068</v>
       </c>
       <c r="H12">
-        <v>7.751733003223557</v>
+        <v>4.369005584668618</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.733334871294797</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.13980703860337</v>
       </c>
       <c r="K12">
-        <v>11.74762965481797</v>
+        <v>16.35781143331288</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.929807266272311</v>
       </c>
       <c r="M12">
-        <v>40.84412353215329</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.15094896987731</v>
+        <v>6.855173267787778</v>
       </c>
       <c r="O12">
-        <v>12.82656612463059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.22724684901099</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.76872060711093</v>
+        <v>27.2636932708315</v>
       </c>
       <c r="C13">
-        <v>6.196330737204909</v>
+        <v>19.04667914640051</v>
       </c>
       <c r="D13">
-        <v>5.903831057857997</v>
+        <v>4.270808628198881</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.61339389723079</v>
+        <v>24.40667336048018</v>
       </c>
       <c r="G13">
-        <v>21.05416890472784</v>
+        <v>31.62420856918622</v>
       </c>
       <c r="H13">
-        <v>7.752604848438025</v>
+        <v>5.749962245218017</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.772805449413584</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.63675917953489</v>
       </c>
       <c r="K13">
-        <v>11.72516211681478</v>
+        <v>15.482160460536</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.135823107228531</v>
       </c>
       <c r="M13">
-        <v>40.70231909073919</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.16635049368422</v>
+        <v>6.41696476528038</v>
       </c>
       <c r="O13">
-        <v>12.81981900517389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.83816478120823</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.66020163458093</v>
+        <v>27.08699423377292</v>
       </c>
       <c r="C14">
-        <v>6.185697169993889</v>
+        <v>19.16229357329468</v>
       </c>
       <c r="D14">
-        <v>5.866055235362194</v>
+        <v>4.219106690026575</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.52757278675876</v>
+        <v>23.19814795839048</v>
       </c>
       <c r="G14">
-        <v>20.94063052715974</v>
+        <v>29.68701855843121</v>
       </c>
       <c r="H14">
-        <v>7.75559760361529</v>
+        <v>6.743448240340948</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.830963049119938</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.28949869984437</v>
       </c>
       <c r="K14">
-        <v>11.65151006020879</v>
+        <v>14.9362940664989</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.299995102812812</v>
       </c>
       <c r="M14">
-        <v>40.24011107119573</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.21648550589891</v>
+        <v>6.122827097848395</v>
       </c>
       <c r="O14">
-        <v>12.79817288608779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.48194931165694</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.59326811070989</v>
+        <v>26.95483819177122</v>
       </c>
       <c r="C15">
-        <v>6.179122910190237</v>
+        <v>19.14090166925287</v>
       </c>
       <c r="D15">
-        <v>5.84277268995656</v>
+        <v>4.203548738076358</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.47519906473376</v>
+        <v>22.87996725873004</v>
       </c>
       <c r="G15">
-        <v>20.87145657730959</v>
+        <v>29.15391687676498</v>
       </c>
       <c r="H15">
-        <v>7.757544879121911</v>
+        <v>6.977881561995162</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.863330144516625</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.20326938080001</v>
       </c>
       <c r="K15">
-        <v>11.6061053578484</v>
+        <v>14.81877586778107</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.336339370577741</v>
       </c>
       <c r="M15">
-        <v>39.95713281873117</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.24712771719848</v>
+        <v>6.051737771547358</v>
       </c>
       <c r="O15">
-        <v>12.7851869609614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.3586202929651</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.20263899280444</v>
+        <v>26.09265044131916</v>
       </c>
       <c r="C16">
-        <v>6.140589920253432</v>
+        <v>18.56076316443415</v>
       </c>
       <c r="D16">
-        <v>5.707171634642303</v>
+        <v>4.16728064016746</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.17804444735525</v>
+        <v>22.82919565690947</v>
       </c>
       <c r="G16">
-        <v>20.4806934550837</v>
+        <v>28.91747472236473</v>
       </c>
       <c r="H16">
-        <v>7.770422647832173</v>
+        <v>6.808112026443909</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.005048238920958</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.24042569093802</v>
       </c>
       <c r="K16">
-        <v>11.34152213457939</v>
+        <v>15.00997613989522</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.241216100697732</v>
       </c>
       <c r="M16">
-        <v>38.33560241154231</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.4218654105297</v>
+        <v>6.027597017960054</v>
       </c>
       <c r="O16">
-        <v>12.71487513785981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.01688377124876</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.95672994229623</v>
+        <v>25.51397647908491</v>
       </c>
       <c r="C17">
-        <v>6.116259447988379</v>
+        <v>18.0410969626747</v>
       </c>
       <c r="D17">
-        <v>5.622067962175256</v>
+        <v>4.167065726922926</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.99841461985458</v>
+        <v>23.43706353669113</v>
       </c>
       <c r="G17">
-        <v>20.24596583448865</v>
+        <v>29.78919205035736</v>
       </c>
       <c r="H17">
-        <v>7.779823057875089</v>
+        <v>6.126462945721143</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.083744542739176</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.45230393841448</v>
       </c>
       <c r="K17">
-        <v>11.17536525924213</v>
+        <v>15.43310173170529</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.07431671197436</v>
       </c>
       <c r="M17">
-        <v>37.33896444335576</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.52845743170634</v>
+        <v>6.162887707427637</v>
       </c>
       <c r="O17">
-        <v>12.67532031394614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.94852369589191</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.81299589051936</v>
+        <v>25.1276443049995</v>
       </c>
       <c r="C18">
-        <v>6.102037999001086</v>
+        <v>17.50348414116034</v>
       </c>
       <c r="D18">
-        <v>5.572424620640478</v>
+        <v>4.198930458793773</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.8960807070276</v>
+        <v>24.72294571875301</v>
       </c>
       <c r="G18">
-        <v>20.11277793928836</v>
+        <v>31.77555609776341</v>
       </c>
       <c r="H18">
-        <v>7.785768059035425</v>
+        <v>4.968376963218598</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.104367284251929</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.85402196472777</v>
       </c>
       <c r="K18">
-        <v>11.07841095536483</v>
+        <v>16.15881575136231</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.858823571765051</v>
       </c>
       <c r="M18">
-        <v>36.76432468791358</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.58960358065924</v>
+        <v>6.469498933370888</v>
       </c>
       <c r="O18">
-        <v>12.65385183436869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.10596567384022</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.76393704310533</v>
+        <v>24.92962596258205</v>
       </c>
       <c r="C19">
-        <v>6.097186196038577</v>
+        <v>17.04851844821878</v>
       </c>
       <c r="D19">
-        <v>5.55549803469525</v>
+        <v>4.262268799182941</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.86160192374072</v>
+        <v>26.39116644706118</v>
       </c>
       <c r="G19">
-        <v>20.06799461005711</v>
+        <v>34.36045494257886</v>
       </c>
       <c r="H19">
-        <v>7.787872106572272</v>
+        <v>3.647827763632872</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.092298627261457</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.35915460621504</v>
       </c>
       <c r="K19">
-        <v>11.0453484946288</v>
+        <v>17.07309382994497</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.676511408509181</v>
       </c>
       <c r="M19">
-        <v>36.56945998731937</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.61028379460969</v>
+        <v>6.923444191810282</v>
       </c>
       <c r="O19">
-        <v>12.64680013405347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.43337138117913</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.98314500040009</v>
+        <v>25.27938497322397</v>
       </c>
       <c r="C20">
-        <v>6.118873555388135</v>
+        <v>16.78474751461084</v>
       </c>
       <c r="D20">
-        <v>5.631199449861718</v>
+        <v>4.401988205543848</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.01743478313281</v>
+        <v>29.1736406700114</v>
       </c>
       <c r="G20">
-        <v>20.2707642477999</v>
+        <v>38.70553413222255</v>
       </c>
       <c r="H20">
-        <v>7.77876637533188</v>
+        <v>2.369310267070353</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.955888599527186</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.17882296561657</v>
       </c>
       <c r="K20">
-        <v>11.19319691420113</v>
+        <v>18.55010745417538</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.585716527354227</v>
       </c>
       <c r="M20">
-        <v>37.44518826752596</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.51712862238216</v>
+        <v>7.733675595059135</v>
       </c>
       <c r="O20">
-        <v>12.679397530398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.20050223550919</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.69217274932491</v>
+        <v>26.81218991074609</v>
       </c>
       <c r="C21">
-        <v>6.188833385639276</v>
+        <v>17.69483193897575</v>
       </c>
       <c r="D21">
-        <v>5.877180932051227</v>
+        <v>4.50552506807052</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.55274005450659</v>
+        <v>30.16456409337951</v>
       </c>
       <c r="G21">
-        <v>20.9739019255744</v>
+        <v>40.41572748603163</v>
       </c>
       <c r="H21">
-        <v>7.754694702232201</v>
+        <v>2.036638149439976</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.689846245241216</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.4040246357057</v>
       </c>
       <c r="K21">
-        <v>11.67320420271052</v>
+        <v>18.77015421845522</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.667646309632802</v>
       </c>
       <c r="M21">
-        <v>40.37583901464076</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.20177400555206</v>
+        <v>8.028801221865791</v>
       </c>
       <c r="O21">
-        <v>12.80447380475329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.98774034784039</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.13489133058551</v>
+        <v>27.77733823244159</v>
       </c>
       <c r="C22">
-        <v>6.231905708874671</v>
+        <v>18.26880734381164</v>
       </c>
       <c r="D22">
-        <v>6.03153748915074</v>
+        <v>4.56402883108848</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.91129600059127</v>
+        <v>30.74408404034336</v>
       </c>
       <c r="G22">
-        <v>21.45003443923798</v>
+        <v>41.43259885085293</v>
       </c>
       <c r="H22">
-        <v>7.744034732761404</v>
+        <v>1.835152621869188</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.509696013420808</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.53655669423097</v>
       </c>
       <c r="K22">
-        <v>11.97397953180259</v>
+        <v>18.88864866063971</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.722347210907158</v>
       </c>
       <c r="M22">
-        <v>42.29536681131916</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9.992840648402524</v>
+        <v>8.177267016170036</v>
       </c>
       <c r="O22">
-        <v>12.89834611048125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.45695494431518</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.90050928313461</v>
+        <v>27.26756673307136</v>
       </c>
       <c r="C23">
-        <v>6.209194955150104</v>
+        <v>17.93958071182309</v>
       </c>
       <c r="D23">
-        <v>5.949752186828236</v>
+        <v>4.529463466846844</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.71913061321084</v>
+        <v>30.48660907981899</v>
       </c>
       <c r="G23">
-        <v>21.19436963688018</v>
+        <v>40.97992595546796</v>
       </c>
       <c r="H23">
-        <v>7.749246598677317</v>
+        <v>1.941218455575234</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.592921567043167</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.48405172334108</v>
       </c>
       <c r="K23">
-        <v>11.81466518251029</v>
+        <v>18.86406594706859</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.694002867397081</v>
       </c>
       <c r="M23">
-        <v>41.26954605241934</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.10468949098195</v>
+        <v>8.093691983998024</v>
       </c>
       <c r="O23">
-        <v>12.84709992990438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.20457349370355</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.9712100936981</v>
+        <v>25.24671439920556</v>
       </c>
       <c r="C24">
-        <v>6.117692438510955</v>
+        <v>16.68849615227057</v>
       </c>
       <c r="D24">
-        <v>5.627073332333686</v>
+        <v>4.403830626726223</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.00883284546152</v>
+        <v>29.43266753161062</v>
       </c>
       <c r="G24">
-        <v>20.25954740584778</v>
+        <v>39.11507931147586</v>
       </c>
       <c r="H24">
-        <v>7.779242420844647</v>
+        <v>2.35170479050456</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.936699979614378</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.26345335908118</v>
       </c>
       <c r="K24">
-        <v>11.18513966606292</v>
+        <v>18.72170725735478</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.583608514360244</v>
       </c>
       <c r="M24">
-        <v>37.39716981113147</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.52225078376715</v>
+        <v>7.778926544573554</v>
       </c>
       <c r="O24">
-        <v>12.67755026623916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.22124793188151</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.88122338632989</v>
+        <v>22.87624961006195</v>
       </c>
       <c r="C25">
-        <v>6.010509471828575</v>
+        <v>15.24419989440609</v>
       </c>
       <c r="D25">
-        <v>5.252609938618937</v>
+        <v>4.267759158726669</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.28046735334526</v>
+        <v>28.31010676965225</v>
       </c>
       <c r="G25">
-        <v>19.3208362839956</v>
+        <v>37.09691050443972</v>
       </c>
       <c r="H25">
-        <v>7.832007180886738</v>
+        <v>2.810441649247685</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.324167354053218</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.04322978905194</v>
       </c>
       <c r="K25">
-        <v>10.45343919683522</v>
+        <v>18.59806616694958</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.460212853151736</v>
       </c>
       <c r="M25">
-        <v>33.16181149786582</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.96686049272563</v>
+        <v>7.428162870560744</v>
       </c>
       <c r="O25">
-        <v>12.54329223526168</v>
+        <v>14.09206652197094</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0083726835429</v>
+        <v>21.00802759838704</v>
       </c>
       <c r="C2">
-        <v>14.02495736736507</v>
+        <v>14.54055460104646</v>
       </c>
       <c r="D2">
-        <v>4.158036584016127</v>
+        <v>4.332666252036606</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.63779834082585</v>
+        <v>26.03705303982773</v>
       </c>
       <c r="G2">
-        <v>35.85903124527199</v>
+        <v>32.77083680443438</v>
       </c>
       <c r="H2">
-        <v>3.159884058991758</v>
+        <v>3.009329116263866</v>
       </c>
       <c r="I2">
-        <v>3.598643771700814</v>
+        <v>3.406192889378758</v>
       </c>
       <c r="J2">
-        <v>11.94334131978852</v>
+        <v>11.59360336185394</v>
       </c>
       <c r="K2">
-        <v>18.62877735141857</v>
+        <v>17.29790612348929</v>
       </c>
       <c r="L2">
-        <v>6.367686242798147</v>
+        <v>13.8833992702559</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.73242397311309</v>
       </c>
       <c r="N2">
-        <v>7.148942299149352</v>
+        <v>6.329547882502585</v>
       </c>
       <c r="O2">
-        <v>13.19406323208868</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.408515536137121</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.27742401133372</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64852547026535</v>
+        <v>19.61654746787973</v>
       </c>
       <c r="C3">
-        <v>13.18646449231205</v>
+        <v>13.60082567728321</v>
       </c>
       <c r="D3">
-        <v>4.088094546192686</v>
+        <v>4.264340573979573</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.1151432022311</v>
+        <v>25.66153647894653</v>
       </c>
       <c r="G3">
-        <v>34.88799235175033</v>
+        <v>32.10530461045731</v>
       </c>
       <c r="H3">
-        <v>3.408386694256864</v>
+        <v>3.236045215999407</v>
       </c>
       <c r="I3">
-        <v>3.808001537112622</v>
+        <v>3.589090269837178</v>
       </c>
       <c r="J3">
-        <v>11.85716908765709</v>
+        <v>11.50918831991116</v>
       </c>
       <c r="K3">
-        <v>18.60634021117851</v>
+        <v>17.37358218656172</v>
       </c>
       <c r="L3">
-        <v>6.300921557148762</v>
+        <v>14.00601601674808</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.74678161275163</v>
       </c>
       <c r="N3">
-        <v>6.961810204077397</v>
+        <v>6.267110628509743</v>
       </c>
       <c r="O3">
-        <v>12.55783859780157</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.218224216663062</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.62264765235455</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76498283677254</v>
+        <v>18.7195735385103</v>
       </c>
       <c r="C4">
-        <v>12.64761637428581</v>
+        <v>12.99538488427784</v>
       </c>
       <c r="D4">
-        <v>4.045034220594371</v>
+        <v>4.222546934842515</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.79756157719161</v>
+        <v>25.43410389992255</v>
       </c>
       <c r="G4">
-        <v>34.29106782862645</v>
+        <v>31.70286846864868</v>
       </c>
       <c r="H4">
-        <v>3.566086016956839</v>
+        <v>3.380011318785913</v>
       </c>
       <c r="I4">
-        <v>3.941455061974696</v>
+        <v>3.706019646362701</v>
       </c>
       <c r="J4">
-        <v>11.80750693953984</v>
+        <v>11.45759059848742</v>
       </c>
       <c r="K4">
-        <v>18.59684644680971</v>
+        <v>17.4229282781877</v>
       </c>
       <c r="L4">
-        <v>6.258452633945994</v>
+        <v>14.08000416975089</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.77465218831904</v>
       </c>
       <c r="N4">
-        <v>6.84502175347914</v>
+        <v>6.227526114509698</v>
       </c>
       <c r="O4">
-        <v>12.15189741225746</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.09983122535344</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.2041252664137</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39247558583267</v>
+        <v>18.34443397083903</v>
       </c>
       <c r="C5">
-        <v>12.43064977854809</v>
+        <v>12.74991390763408</v>
       </c>
       <c r="D5">
-        <v>4.028417841564001</v>
+        <v>4.206496544185864</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.65391714683906</v>
+        <v>25.32848167996798</v>
       </c>
       <c r="G5">
-        <v>34.02061016078751</v>
+        <v>31.51560322882197</v>
       </c>
       <c r="H5">
-        <v>3.632040436540767</v>
+        <v>3.440244621708357</v>
       </c>
       <c r="I5">
-        <v>3.999618610788001</v>
+        <v>3.757786554540364</v>
       </c>
       <c r="J5">
-        <v>11.78296931940254</v>
+        <v>11.43196099457139</v>
       </c>
       <c r="K5">
-        <v>18.58357455846474</v>
+        <v>17.43465566124479</v>
       </c>
       <c r="L5">
-        <v>6.240457073175237</v>
+        <v>14.10168602627304</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.78517572694318</v>
       </c>
       <c r="N5">
-        <v>6.79833828251188</v>
+        <v>6.210865731645527</v>
       </c>
       <c r="O5">
-        <v>11.98400277290442</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.052466822588061</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.03071253344337</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32957096918625</v>
+        <v>18.28106782828581</v>
       </c>
       <c r="C6">
-        <v>12.40481687340951</v>
+        <v>12.71896705494968</v>
       </c>
       <c r="D6">
-        <v>4.026837477681372</v>
+        <v>4.204985228222923</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.61158440999584</v>
+        <v>25.29417529798603</v>
       </c>
       <c r="G6">
-        <v>33.94233567047135</v>
+        <v>31.45418008431303</v>
       </c>
       <c r="H6">
-        <v>3.643534541512631</v>
+        <v>3.450744898125297</v>
       </c>
       <c r="I6">
-        <v>4.012583830231004</v>
+        <v>3.770228762490419</v>
       </c>
       <c r="J6">
-        <v>11.77270445446085</v>
+        <v>11.42200969894152</v>
       </c>
       <c r="K6">
-        <v>18.56868177776558</v>
+        <v>17.4255748895524</v>
       </c>
       <c r="L6">
-        <v>6.237069656240223</v>
+        <v>14.09533093136491</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.78042524793133</v>
       </c>
       <c r="N6">
-        <v>6.792208797462537</v>
+        <v>6.207826927012676</v>
       </c>
       <c r="O6">
-        <v>11.95739381265378</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.046085187519041</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.00305520816046</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.75914836296986</v>
+        <v>18.71375143571125</v>
       </c>
       <c r="C7">
-        <v>12.67293754941716</v>
+        <v>13.00891466927321</v>
       </c>
       <c r="D7">
-        <v>4.048004337578194</v>
+        <v>4.228816004102741</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.74533283561449</v>
+        <v>25.36124416199229</v>
       </c>
       <c r="G7">
-        <v>34.19709604532221</v>
+        <v>31.67732128344679</v>
       </c>
       <c r="H7">
-        <v>3.568211918970343</v>
+        <v>3.382675906993432</v>
       </c>
       <c r="I7">
-        <v>3.95080705241577</v>
+        <v>3.717415024996012</v>
       </c>
       <c r="J7">
-        <v>11.79019696046221</v>
+        <v>11.39244921554692</v>
       </c>
       <c r="K7">
-        <v>18.56190075067729</v>
+        <v>17.379463725904</v>
       </c>
       <c r="L7">
-        <v>6.257213345727589</v>
+        <v>14.04176732996953</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.74729888877009</v>
       </c>
       <c r="N7">
-        <v>6.84885474154702</v>
+        <v>6.226092430729681</v>
       </c>
       <c r="O7">
-        <v>12.15362495154283</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.103239679476732</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.20572911646711</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54844587403776</v>
+        <v>20.53661278253867</v>
       </c>
       <c r="C8">
-        <v>13.77562471996858</v>
+        <v>14.22360438875617</v>
       </c>
       <c r="D8">
-        <v>4.138046202756009</v>
+        <v>4.324214229791807</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.39212531619522</v>
+        <v>25.7646353095695</v>
       </c>
       <c r="G8">
-        <v>35.40907602836916</v>
+        <v>32.62826671178367</v>
       </c>
       <c r="H8">
-        <v>3.246070330378792</v>
+        <v>3.090161947313939</v>
       </c>
       <c r="I8">
-        <v>3.680815292743188</v>
+        <v>3.483301202521524</v>
       </c>
       <c r="J8">
-        <v>11.89080264060823</v>
+        <v>11.3838118493127</v>
       </c>
       <c r="K8">
-        <v>18.57449328325326</v>
+        <v>17.23999060263313</v>
       </c>
       <c r="L8">
-        <v>6.343773298234801</v>
+        <v>13.8565522595381</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.67591087086531</v>
       </c>
       <c r="N8">
-        <v>7.090564366292219</v>
+        <v>6.305851297009343</v>
       </c>
       <c r="O8">
-        <v>12.98285245160066</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.348436466399363</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.06039717605934</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70271359031511</v>
+        <v>23.72111115933266</v>
       </c>
       <c r="C9">
-        <v>15.70139411199701</v>
+        <v>16.37407830339389</v>
       </c>
       <c r="D9">
-        <v>4.308376801194702</v>
+        <v>4.494547617836577</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.76969580291051</v>
+        <v>26.75322686206136</v>
       </c>
       <c r="G9">
-        <v>37.92359271845206</v>
+        <v>34.46021777181068</v>
       </c>
       <c r="H9">
-        <v>2.651754334399008</v>
+        <v>2.548901645778828</v>
       </c>
       <c r="I9">
-        <v>3.175342889359852</v>
+        <v>3.041341191013696</v>
       </c>
       <c r="J9">
-        <v>12.14430417037577</v>
+        <v>11.57371808458408</v>
       </c>
       <c r="K9">
-        <v>18.69680886230802</v>
+        <v>17.09318068326924</v>
       </c>
       <c r="L9">
-        <v>6.503762016167516</v>
+        <v>13.56939649413595</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.75854606983032</v>
       </c>
       <c r="N9">
-        <v>7.54035897529884</v>
+        <v>6.455583523160994</v>
       </c>
       <c r="O9">
-        <v>14.47548648804971</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.808138391309264</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.59302211578782</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.82254083572267</v>
+        <v>25.82193636305828</v>
       </c>
       <c r="C10">
-        <v>17.06170511714139</v>
+        <v>17.81707518942523</v>
       </c>
       <c r="D10">
-        <v>4.423867293027585</v>
+        <v>4.62567177576525</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.52535429932161</v>
+        <v>27.13148784080245</v>
       </c>
       <c r="G10">
-        <v>39.33996191466946</v>
+        <v>35.79821804997675</v>
       </c>
       <c r="H10">
-        <v>2.26682387539194</v>
+        <v>2.204231427706484</v>
       </c>
       <c r="I10">
-        <v>2.837904695661424</v>
+        <v>2.752877251034238</v>
       </c>
       <c r="J10">
-        <v>12.26490746947137</v>
+        <v>11.38197918286955</v>
       </c>
       <c r="K10">
-        <v>18.65035437955084</v>
+        <v>16.80424343008601</v>
       </c>
       <c r="L10">
-        <v>6.617147640582115</v>
+        <v>13.2089349732789</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.75546226665259</v>
       </c>
       <c r="N10">
-        <v>7.789167049469328</v>
+        <v>6.565176823457806</v>
       </c>
       <c r="O10">
-        <v>15.44100007765893</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.061328353364509</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.58043585442569</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.82858257830052</v>
+        <v>26.82435184979688</v>
       </c>
       <c r="C11">
-        <v>18.12613494707787</v>
+        <v>18.71558708558932</v>
       </c>
       <c r="D11">
-        <v>4.389981011814505</v>
+        <v>4.59245652288312</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.7163641960568</v>
+        <v>25.24987939501814</v>
       </c>
       <c r="G11">
-        <v>36.68690316897694</v>
+        <v>34.1552334303672</v>
       </c>
       <c r="H11">
-        <v>3.086113622336418</v>
+        <v>3.052193277839875</v>
       </c>
       <c r="I11">
-        <v>2.755062440300781</v>
+        <v>2.692088341207417</v>
       </c>
       <c r="J11">
-        <v>11.65617850395101</v>
+        <v>10.36337180715978</v>
       </c>
       <c r="K11">
-        <v>17.35739111815192</v>
+        <v>15.59131108790045</v>
       </c>
       <c r="L11">
-        <v>6.7542059694863</v>
+        <v>12.29548720259903</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.87156729567697</v>
       </c>
       <c r="N11">
-        <v>7.302891082893933</v>
+        <v>6.736725002623875</v>
       </c>
       <c r="O11">
-        <v>15.43998243527852</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.544083653621694</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.56923626404499</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.25133744730859</v>
+        <v>27.24864809153976</v>
       </c>
       <c r="C12">
-        <v>18.72278105812464</v>
+        <v>19.18038939784521</v>
       </c>
       <c r="D12">
-        <v>4.337379515567815</v>
+        <v>4.522313446922686</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.0861613623962</v>
+        <v>23.72265729554255</v>
       </c>
       <c r="G12">
-        <v>34.23694737609068</v>
+        <v>32.36550263384403</v>
       </c>
       <c r="H12">
-        <v>4.369005584668618</v>
+        <v>4.346734534486814</v>
       </c>
       <c r="I12">
-        <v>2.733334871294797</v>
+        <v>2.674683262905922</v>
       </c>
       <c r="J12">
-        <v>11.13980703860337</v>
+        <v>9.763667440473204</v>
       </c>
       <c r="K12">
-        <v>16.35781143331288</v>
+        <v>14.76227983504967</v>
       </c>
       <c r="L12">
-        <v>6.929807266272311</v>
+        <v>11.71872574570317</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.20754794952452</v>
       </c>
       <c r="N12">
-        <v>6.855173267787778</v>
+        <v>6.935696901203686</v>
       </c>
       <c r="O12">
-        <v>15.22724684901099</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.069126943298293</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.34359755376817</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.2636932708315</v>
+        <v>27.26722279065841</v>
       </c>
       <c r="C13">
-        <v>19.04667914640051</v>
+        <v>19.40752939735106</v>
       </c>
       <c r="D13">
-        <v>4.270808628198881</v>
+        <v>4.420595464336291</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.40667336048018</v>
+        <v>22.34901318816708</v>
       </c>
       <c r="G13">
-        <v>31.62420856918622</v>
+        <v>30.06105954512556</v>
       </c>
       <c r="H13">
-        <v>5.749962245218017</v>
+        <v>5.730019510523284</v>
       </c>
       <c r="I13">
-        <v>2.772805449413584</v>
+        <v>2.706732117075546</v>
       </c>
       <c r="J13">
-        <v>10.63675917953489</v>
+        <v>9.478589543838472</v>
       </c>
       <c r="K13">
-        <v>15.482160460536</v>
+        <v>14.1569284214696</v>
       </c>
       <c r="L13">
-        <v>7.135823107228531</v>
+        <v>11.32571039973657</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.671342124377206</v>
       </c>
       <c r="N13">
-        <v>6.41696476528038</v>
+        <v>7.158014753729752</v>
       </c>
       <c r="O13">
-        <v>14.83816478120823</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.605051619729148</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.93760150293182</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08699423377292</v>
+        <v>27.096945767191</v>
       </c>
       <c r="C14">
-        <v>19.16229357329468</v>
+        <v>19.46881209455108</v>
       </c>
       <c r="D14">
-        <v>4.219106690026575</v>
+        <v>4.340190665407299</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.19814795839048</v>
+        <v>21.44078394185208</v>
       </c>
       <c r="G14">
-        <v>29.68701855843121</v>
+        <v>28.19237509516435</v>
       </c>
       <c r="H14">
-        <v>6.743448240340948</v>
+        <v>6.722901648371613</v>
       </c>
       <c r="I14">
-        <v>2.830963049119938</v>
+        <v>2.755090317309092</v>
       </c>
       <c r="J14">
-        <v>10.28949869984437</v>
+        <v>9.395185790209917</v>
       </c>
       <c r="K14">
-        <v>14.9362940664989</v>
+        <v>13.83138777683933</v>
       </c>
       <c r="L14">
-        <v>7.299995102812812</v>
+        <v>11.12252601168446</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.359479401682282</v>
       </c>
       <c r="N14">
-        <v>6.122827097848395</v>
+        <v>7.329077687382549</v>
       </c>
       <c r="O14">
-        <v>14.48194931165694</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.294047823632468</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.56730184319264</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95483819177122</v>
+        <v>26.9673516299688</v>
       </c>
       <c r="C15">
-        <v>19.14090166925287</v>
+        <v>19.44008656646783</v>
       </c>
       <c r="D15">
-        <v>4.203548738076358</v>
+        <v>4.316123545905303</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.87996725873004</v>
+        <v>21.23276687418479</v>
       </c>
       <c r="G15">
-        <v>29.15391687676498</v>
+        <v>27.61696266364372</v>
       </c>
       <c r="H15">
-        <v>6.977881561995162</v>
+        <v>6.956297946298198</v>
       </c>
       <c r="I15">
-        <v>2.863330144516625</v>
+        <v>2.783324852259981</v>
       </c>
       <c r="J15">
-        <v>10.20326938080001</v>
+        <v>9.419901249424134</v>
       </c>
       <c r="K15">
-        <v>14.81877586778107</v>
+        <v>13.78183736267273</v>
       </c>
       <c r="L15">
-        <v>7.336339370577741</v>
+        <v>11.09331755772414</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.302604314544642</v>
       </c>
       <c r="N15">
-        <v>6.051737771547358</v>
+        <v>7.366455154526329</v>
       </c>
       <c r="O15">
-        <v>14.3586202929651</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.21936786938785</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.43947664237734</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09265044131916</v>
+        <v>26.11405292643739</v>
       </c>
       <c r="C16">
-        <v>18.56076316443415</v>
+        <v>18.91328669130488</v>
       </c>
       <c r="D16">
-        <v>4.16728064016746</v>
+        <v>4.265233464635535</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.82919565690947</v>
+        <v>21.47740794955987</v>
       </c>
       <c r="G16">
-        <v>28.91747472236473</v>
+        <v>26.89321464611749</v>
       </c>
       <c r="H16">
-        <v>6.808112026443909</v>
+        <v>6.776954787885252</v>
       </c>
       <c r="I16">
-        <v>3.005048238920958</v>
+        <v>2.902053990695026</v>
       </c>
       <c r="J16">
-        <v>10.24042569093802</v>
+        <v>9.853831301343096</v>
       </c>
       <c r="K16">
-        <v>15.00997613989522</v>
+        <v>14.08919138350399</v>
       </c>
       <c r="L16">
-        <v>7.241216100697732</v>
+        <v>11.30734258636569</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.50711085157271</v>
       </c>
       <c r="N16">
-        <v>6.027597017960054</v>
+        <v>7.270376467853898</v>
       </c>
       <c r="O16">
-        <v>14.01688377124876</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.200148265333852</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.08927638064475</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.51397647908491</v>
+        <v>25.53843125501394</v>
       </c>
       <c r="C17">
-        <v>18.0410969626747</v>
+        <v>18.45224342919024</v>
       </c>
       <c r="D17">
-        <v>4.167065726922926</v>
+        <v>4.268576301215665</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.43706353669113</v>
+        <v>22.1245811195642</v>
       </c>
       <c r="G17">
-        <v>29.78919205035736</v>
+        <v>27.43312767584109</v>
       </c>
       <c r="H17">
-        <v>6.126462945721143</v>
+        <v>6.086216052087948</v>
       </c>
       <c r="I17">
-        <v>3.083744542739176</v>
+        <v>2.969094374739241</v>
       </c>
       <c r="J17">
-        <v>10.45230393841448</v>
+        <v>10.20137865498761</v>
       </c>
       <c r="K17">
-        <v>15.43310173170529</v>
+        <v>14.48709435221641</v>
       </c>
       <c r="L17">
-        <v>7.07431671197436</v>
+        <v>11.5889649466785</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.807866266460877</v>
       </c>
       <c r="N17">
-        <v>6.162887707427637</v>
+        <v>7.099920898447691</v>
       </c>
       <c r="O17">
-        <v>13.94852369589191</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.347422427115314</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.02242170519535</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.1276443049995</v>
+        <v>25.1508400821053</v>
       </c>
       <c r="C18">
-        <v>17.50348414116034</v>
+        <v>18.00190664324672</v>
       </c>
       <c r="D18">
-        <v>4.198930458793773</v>
+        <v>4.314958071878571</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.72294571875301</v>
+        <v>23.27924849101496</v>
       </c>
       <c r="G18">
-        <v>31.77555609776341</v>
+        <v>29.04662782233154</v>
       </c>
       <c r="H18">
-        <v>4.968376963218598</v>
+        <v>4.916527469655144</v>
       </c>
       <c r="I18">
-        <v>3.104367284251929</v>
+        <v>2.984166368167694</v>
       </c>
       <c r="J18">
-        <v>10.85402196472777</v>
+        <v>10.60316939742312</v>
       </c>
       <c r="K18">
-        <v>16.15881575136231</v>
+        <v>15.07682782262831</v>
       </c>
       <c r="L18">
-        <v>6.858823571765051</v>
+        <v>12.01583466743837</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.26985185507311</v>
       </c>
       <c r="N18">
-        <v>6.469498933370888</v>
+        <v>6.875108064836308</v>
       </c>
       <c r="O18">
-        <v>14.10596567384022</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.673979265579548</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.19049855684178</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.92962596258205</v>
+        <v>24.94842401046476</v>
       </c>
       <c r="C19">
-        <v>17.04851844821878</v>
+        <v>17.65253935953488</v>
       </c>
       <c r="D19">
-        <v>4.262268799182941</v>
+        <v>4.40072565980073</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.39116644706118</v>
+        <v>24.71383641636135</v>
       </c>
       <c r="G19">
-        <v>34.36045494257886</v>
+        <v>31.21270809414144</v>
       </c>
       <c r="H19">
-        <v>3.647827763632872</v>
+        <v>3.580256603329691</v>
       </c>
       <c r="I19">
-        <v>3.092298627261457</v>
+        <v>2.975757784309566</v>
       </c>
       <c r="J19">
-        <v>11.35915460621504</v>
+        <v>11.03316461498151</v>
       </c>
       <c r="K19">
-        <v>17.07309382994497</v>
+        <v>15.78267530534059</v>
       </c>
       <c r="L19">
-        <v>6.676511408509181</v>
+        <v>12.53194136388818</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.82875468957898</v>
       </c>
       <c r="N19">
-        <v>6.923444191810282</v>
+        <v>6.673930792604525</v>
       </c>
       <c r="O19">
-        <v>14.43337138117913</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.153173178590108</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.53440799038957</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.27938497322397</v>
+        <v>25.28491772275444</v>
       </c>
       <c r="C20">
-        <v>16.78474751461084</v>
+        <v>17.54553976953102</v>
       </c>
       <c r="D20">
-        <v>4.401988205543848</v>
+        <v>4.588095260789054</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.1736406700114</v>
+        <v>26.97767055405338</v>
       </c>
       <c r="G20">
-        <v>38.70553413222255</v>
+        <v>35.00926367135889</v>
       </c>
       <c r="H20">
-        <v>2.369310267070353</v>
+        <v>2.29378907602579</v>
       </c>
       <c r="I20">
-        <v>2.955888599527186</v>
+        <v>2.861468023758286</v>
       </c>
       <c r="J20">
-        <v>12.17882296561657</v>
+        <v>11.55016729679753</v>
       </c>
       <c r="K20">
-        <v>18.55010745417538</v>
+        <v>16.83159495288423</v>
       </c>
       <c r="L20">
-        <v>6.585716527354227</v>
+        <v>13.26847904003711</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.7133114978895</v>
       </c>
       <c r="N20">
-        <v>7.733675595059135</v>
+        <v>6.537554580705739</v>
       </c>
       <c r="O20">
-        <v>15.20050223550919</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.003567407327242</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.33316153948395</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.81218991074609</v>
+        <v>26.79753525856514</v>
       </c>
       <c r="C21">
-        <v>17.69483193897575</v>
+        <v>18.38579038381436</v>
       </c>
       <c r="D21">
-        <v>4.50552506807052</v>
+        <v>4.773798840022328</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.16456409337951</v>
+        <v>27.18530780104117</v>
       </c>
       <c r="G21">
-        <v>40.41572748603163</v>
+        <v>37.60515745489565</v>
       </c>
       <c r="H21">
-        <v>2.036638149439976</v>
+        <v>2.002737441344657</v>
       </c>
       <c r="I21">
-        <v>2.689846245241216</v>
+        <v>2.643044460995369</v>
       </c>
       <c r="J21">
-        <v>12.4040246357057</v>
+        <v>10.67655974184446</v>
       </c>
       <c r="K21">
-        <v>18.77015421845522</v>
+        <v>16.56602109635244</v>
       </c>
       <c r="L21">
-        <v>6.667646309632802</v>
+        <v>12.96374661967443</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.69269404882255</v>
       </c>
       <c r="N21">
-        <v>8.028801221865791</v>
+        <v>6.601400955854799</v>
       </c>
       <c r="O21">
-        <v>15.98774034784039</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.308212412649658</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.14145293825651</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.77733823244159</v>
+        <v>27.74948782847736</v>
       </c>
       <c r="C22">
-        <v>18.26880734381164</v>
+        <v>18.9003780927508</v>
       </c>
       <c r="D22">
-        <v>4.56402883108848</v>
+        <v>4.891215538273834</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.74408404034336</v>
+        <v>27.23910217214341</v>
       </c>
       <c r="G22">
-        <v>41.43259885085293</v>
+        <v>39.30489306334219</v>
       </c>
       <c r="H22">
-        <v>1.835152621869188</v>
+        <v>1.827909554841983</v>
       </c>
       <c r="I22">
-        <v>2.509696013420808</v>
+        <v>2.529287480181506</v>
       </c>
       <c r="J22">
-        <v>12.53655669423097</v>
+        <v>10.0726052679641</v>
       </c>
       <c r="K22">
-        <v>18.88864866063971</v>
+        <v>16.35603752489899</v>
       </c>
       <c r="L22">
-        <v>6.722347210907158</v>
+        <v>12.74141321015714</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.65914779649026</v>
       </c>
       <c r="N22">
-        <v>8.177267016170036</v>
+        <v>6.646649436398892</v>
       </c>
       <c r="O22">
-        <v>16.45695494431518</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.46161713672222</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.62220378828208</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26756673307136</v>
+        <v>27.24716548570079</v>
       </c>
       <c r="C23">
-        <v>17.93958071182309</v>
+        <v>18.62406489675088</v>
       </c>
       <c r="D23">
-        <v>4.529463466846844</v>
+        <v>4.815486198349801</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.48660907981899</v>
+        <v>27.31725713266324</v>
       </c>
       <c r="G23">
-        <v>40.97992595546796</v>
+        <v>38.33632088662833</v>
       </c>
       <c r="H23">
-        <v>1.941218455575234</v>
+        <v>1.918703305438099</v>
       </c>
       <c r="I23">
-        <v>2.592921567043167</v>
+        <v>2.555923470038563</v>
       </c>
       <c r="J23">
-        <v>12.48405172334108</v>
+        <v>10.51320687724574</v>
       </c>
       <c r="K23">
-        <v>18.86406594706859</v>
+        <v>16.53383651776008</v>
       </c>
       <c r="L23">
-        <v>6.694002867397081</v>
+        <v>12.90481926403037</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.73079093241132</v>
       </c>
       <c r="N23">
-        <v>8.093691983998024</v>
+        <v>6.623751247391196</v>
       </c>
       <c r="O23">
-        <v>16.20457349370355</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.375712192379975</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.36379107861196</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.24671439920556</v>
+        <v>25.25172437147685</v>
       </c>
       <c r="C24">
-        <v>16.68849615227057</v>
+        <v>17.46128983866217</v>
       </c>
       <c r="D24">
-        <v>4.403830626726223</v>
+        <v>4.592269214464133</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.43266753161062</v>
+        <v>27.20817885442146</v>
       </c>
       <c r="G24">
-        <v>39.11507931147586</v>
+        <v>35.35674734545464</v>
       </c>
       <c r="H24">
-        <v>2.35170479050456</v>
+        <v>2.276332592974901</v>
       </c>
       <c r="I24">
-        <v>2.936699979614378</v>
+        <v>2.83901129097197</v>
       </c>
       <c r="J24">
-        <v>12.26345335908118</v>
+        <v>11.62922519068727</v>
       </c>
       <c r="K24">
-        <v>18.72170725735478</v>
+        <v>16.97255928625129</v>
       </c>
       <c r="L24">
-        <v>6.583608514360244</v>
+        <v>13.37282979368749</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.82274979570618</v>
       </c>
       <c r="N24">
-        <v>7.778926544573554</v>
+        <v>6.531018611643464</v>
       </c>
       <c r="O24">
-        <v>15.22124793188151</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.052152705145858</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.35592626127099</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.87624961006195</v>
+        <v>22.90181384274439</v>
       </c>
       <c r="C25">
-        <v>15.24419989440609</v>
+        <v>15.87102011093375</v>
       </c>
       <c r="D25">
-        <v>4.267759158726669</v>
+        <v>4.449105263226667</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.31010676965225</v>
+        <v>26.44116757282378</v>
       </c>
       <c r="G25">
-        <v>37.09691050443972</v>
+        <v>33.74291252845612</v>
       </c>
       <c r="H25">
-        <v>2.810441649247685</v>
+        <v>2.692404619006122</v>
       </c>
       <c r="I25">
-        <v>3.324167354053218</v>
+        <v>3.175103092941162</v>
       </c>
       <c r="J25">
-        <v>12.04322978905194</v>
+        <v>11.56346974766835</v>
       </c>
       <c r="K25">
-        <v>18.59806616694958</v>
+        <v>17.09629256803941</v>
       </c>
       <c r="L25">
-        <v>6.460212853151736</v>
+        <v>13.62243394018664</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.69377183241397</v>
       </c>
       <c r="N25">
-        <v>7.428162870560744</v>
+        <v>6.415983140508202</v>
       </c>
       <c r="O25">
-        <v>14.09206652197094</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.692481919012895</v>
       </c>
       <c r="Q25">
+        <v>14.1990616970861</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
